--- a/BackTest/2019-10-22 BackTest BCH.xlsx
+++ b/BackTest/2019-10-22 BackTest BCH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2600</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>265650</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2900</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L13" t="n">
         <v>265610</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2900</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L14" t="n">
         <v>265600</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3000</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L15" t="n">
         <v>265580</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3000</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>265600</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3100</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L17" t="n">
         <v>265590</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3400</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>53.84615384615385</v>
+      </c>
       <c r="L18" t="n">
         <v>265650</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3800</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
       <c r="L19" t="n">
         <v>265760</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4000</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>37.5</v>
+      </c>
       <c r="L20" t="n">
         <v>265830</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4100</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>46.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>265880</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4100</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>265950</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4200</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.702702702702703</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L23" t="n">
         <v>265980</v>
@@ -1466,7 +1488,7 @@
         <v>4200</v>
       </c>
       <c r="K24" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L24" t="n">
         <v>266010</v>
@@ -1515,7 +1537,7 @@
         <v>4200</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>266030</v>
@@ -1564,7 +1586,7 @@
         <v>4200</v>
       </c>
       <c r="K26" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>266050</v>
@@ -1613,7 +1635,7 @@
         <v>4400</v>
       </c>
       <c r="K27" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>266100</v>
@@ -1662,7 +1684,7 @@
         <v>4400</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>266120</v>
@@ -1711,7 +1733,7 @@
         <v>4400</v>
       </c>
       <c r="K29" t="n">
-        <v>39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>266100</v>
@@ -1760,7 +1782,7 @@
         <v>4700</v>
       </c>
       <c r="K30" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>266070</v>
@@ -1809,7 +1831,7 @@
         <v>4700</v>
       </c>
       <c r="K31" t="n">
-        <v>13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>266050</v>
@@ -1860,7 +1882,7 @@
         <v>4900</v>
       </c>
       <c r="K32" t="n">
-        <v>30.43478260869566</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>266050</v>
@@ -1911,7 +1933,7 @@
         <v>5100</v>
       </c>
       <c r="K33" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>266040</v>
@@ -1962,7 +1984,7 @@
         <v>5100</v>
       </c>
       <c r="K34" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L34" t="n">
         <v>266030</v>
@@ -2013,7 +2035,7 @@
         <v>5100</v>
       </c>
       <c r="K35" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L35" t="n">
         <v>266020</v>
@@ -2064,7 +2086,7 @@
         <v>5300</v>
       </c>
       <c r="K36" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L36" t="n">
         <v>266030</v>
@@ -2115,7 +2137,7 @@
         <v>5400</v>
       </c>
       <c r="K37" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L37" t="n">
         <v>266010</v>
@@ -2166,7 +2188,7 @@
         <v>5700</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.04347826086956</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L38" t="n">
         <v>265960</v>
@@ -2217,7 +2239,7 @@
         <v>5900</v>
       </c>
       <c r="K39" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>265930</v>
@@ -2268,7 +2290,7 @@
         <v>6200</v>
       </c>
       <c r="K40" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L40" t="n">
         <v>265900</v>
@@ -2319,7 +2341,7 @@
         <v>6600</v>
       </c>
       <c r="K41" t="n">
-        <v>-4</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L41" t="n">
         <v>265910</v>
@@ -2370,7 +2392,7 @@
         <v>6800</v>
       </c>
       <c r="K42" t="n">
-        <v>3.703703703703703</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L42" t="n">
         <v>265920</v>
@@ -2421,7 +2443,7 @@
         <v>6900</v>
       </c>
       <c r="K43" t="n">
-        <v>3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>265940</v>
@@ -2472,7 +2494,7 @@
         <v>7000</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L44" t="n">
         <v>265950</v>
@@ -2523,7 +2545,7 @@
         <v>7200</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.666666666666667</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L45" t="n">
         <v>265940</v>
@@ -2574,7 +2596,7 @@
         <v>7300</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.67741935483871</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L46" t="n">
         <v>265900</v>
@@ -2625,7 +2647,7 @@
         <v>7600</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.25</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L47" t="n">
         <v>265900</v>
@@ -2676,7 +2698,7 @@
         <v>7600</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L48" t="n">
         <v>265930</v>
@@ -2727,7 +2749,7 @@
         <v>7600</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>265940</v>
@@ -2778,7 +2800,7 @@
         <v>7700</v>
       </c>
       <c r="K50" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L50" t="n">
         <v>265990</v>
@@ -2829,7 +2851,7 @@
         <v>8100</v>
       </c>
       <c r="K51" t="n">
-        <v>17.64705882352941</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L51" t="n">
         <v>266040</v>
@@ -2880,7 +2902,7 @@
         <v>8800</v>
       </c>
       <c r="K52" t="n">
-        <v>28.2051282051282</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L52" t="n">
         <v>266140</v>
@@ -2931,7 +2953,7 @@
         <v>8800</v>
       </c>
       <c r="K53" t="n">
-        <v>35.13513513513514</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>266250</v>
@@ -2982,7 +3004,7 @@
         <v>8900</v>
       </c>
       <c r="K54" t="n">
-        <v>31.57894736842105</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L54" t="n">
         <v>266360</v>
@@ -3033,7 +3055,7 @@
         <v>9000</v>
       </c>
       <c r="K55" t="n">
-        <v>33.33333333333333</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L55" t="n">
         <v>266500</v>
@@ -3084,7 +3106,7 @@
         <v>9200</v>
       </c>
       <c r="K56" t="n">
-        <v>23.07692307692308</v>
+        <v>62.5</v>
       </c>
       <c r="L56" t="n">
         <v>266630</v>
@@ -3135,7 +3157,7 @@
         <v>9200</v>
       </c>
       <c r="K57" t="n">
-        <v>26.31578947368421</v>
+        <v>62.5</v>
       </c>
       <c r="L57" t="n">
         <v>266730</v>
@@ -3186,7 +3208,7 @@
         <v>9300</v>
       </c>
       <c r="K58" t="n">
-        <v>38.88888888888889</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L58" t="n">
         <v>266840</v>
@@ -3237,7 +3259,7 @@
         <v>9500</v>
       </c>
       <c r="K59" t="n">
-        <v>27.77777777777778</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L59" t="n">
         <v>266930</v>
@@ -3288,7 +3310,7 @@
         <v>9800</v>
       </c>
       <c r="K60" t="n">
-        <v>44.44444444444444</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L60" t="n">
         <v>267040</v>
@@ -3339,7 +3361,7 @@
         <v>10200</v>
       </c>
       <c r="K61" t="n">
-        <v>22.22222222222222</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>267070</v>
@@ -3390,7 +3412,7 @@
         <v>10200</v>
       </c>
       <c r="K62" t="n">
-        <v>17.64705882352941</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>267030</v>
@@ -3441,7 +3463,7 @@
         <v>10500</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111111</v>
+        <v>-37.5</v>
       </c>
       <c r="L63" t="n">
         <v>266960</v>
@@ -3492,7 +3514,7 @@
         <v>10700</v>
       </c>
       <c r="K64" t="n">
-        <v>8.108108108108109</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L64" t="n">
         <v>266880</v>
@@ -3543,7 +3565,7 @@
         <v>11000</v>
       </c>
       <c r="K65" t="n">
-        <v>21.05263157894737</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L65" t="n">
         <v>266820</v>
@@ -3594,7 +3616,7 @@
         <v>11000</v>
       </c>
       <c r="K66" t="n">
-        <v>24.32432432432433</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L66" t="n">
         <v>266780</v>
@@ -3645,7 +3667,7 @@
         <v>11000</v>
       </c>
       <c r="K67" t="n">
-        <v>17.64705882352941</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L67" t="n">
         <v>266740</v>
@@ -3696,7 +3718,7 @@
         <v>11100</v>
       </c>
       <c r="K68" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L68" t="n">
         <v>266680</v>
@@ -3747,7 +3769,7 @@
         <v>11200</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>266630</v>
@@ -3798,7 +3820,7 @@
         <v>11300</v>
       </c>
       <c r="K70" t="n">
-        <v>5.555555555555555</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L70" t="n">
         <v>266540</v>
@@ -3849,7 +3871,7 @@
         <v>11300</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L71" t="n">
         <v>266490</v>
@@ -3900,7 +3922,7 @@
         <v>11900</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.67741935483871</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>266500</v>
@@ -3951,7 +3973,7 @@
         <v>12800</v>
       </c>
       <c r="K73" t="n">
-        <v>-30</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>266450</v>
@@ -4002,7 +4024,7 @@
         <v>13100</v>
       </c>
       <c r="K74" t="n">
-        <v>-19.04761904761905</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>266450</v>
@@ -4053,7 +4075,7 @@
         <v>13200</v>
       </c>
       <c r="K75" t="n">
-        <v>-23.80952380952381</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L75" t="n">
         <v>266410</v>
@@ -4104,7 +4126,7 @@
         <v>13400</v>
       </c>
       <c r="K76" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L76" t="n">
         <v>266350</v>
@@ -4155,7 +4177,7 @@
         <v>13900</v>
       </c>
       <c r="K77" t="n">
-        <v>-10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>266340</v>
@@ -4206,7 +4228,7 @@
         <v>14000</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>266330</v>
@@ -4257,7 +4279,7 @@
         <v>14400</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.040816326530612</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L79" t="n">
         <v>266370</v>
@@ -4308,7 +4330,7 @@
         <v>14700</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.28571428571428</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L80" t="n">
         <v>266390</v>
@@ -4359,7 +4381,7 @@
         <v>14700</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L81" t="n">
         <v>266410</v>
@@ -4410,7 +4432,7 @@
         <v>14800</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.695652173913043</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>266360</v>
@@ -4461,7 +4483,7 @@
         <v>15700</v>
       </c>
       <c r="K83" t="n">
-        <v>-19.23076923076923</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L83" t="n">
         <v>266310</v>
@@ -4512,7 +4534,7 @@
         <v>16100</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.407407407407407</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L84" t="n">
         <v>266270</v>
@@ -4563,7 +4585,7 @@
         <v>16100</v>
       </c>
       <c r="K85" t="n">
-        <v>-13.72549019607843</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L85" t="n">
         <v>266240</v>
@@ -4614,7 +4636,7 @@
         <v>16100</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.72549019607843</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L86" t="n">
         <v>266230</v>
@@ -4665,7 +4687,7 @@
         <v>16700</v>
       </c>
       <c r="K87" t="n">
-        <v>-22.80701754385965</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L87" t="n">
         <v>266110</v>
@@ -4716,7 +4738,7 @@
         <v>16800</v>
       </c>
       <c r="K88" t="n">
-        <v>-22.80701754385965</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L88" t="n">
         <v>265990</v>
@@ -4767,7 +4789,7 @@
         <v>17000</v>
       </c>
       <c r="K89" t="n">
-        <v>-17.24137931034483</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L89" t="n">
         <v>265850</v>
@@ -4818,7 +4840,7 @@
         <v>17100</v>
       </c>
       <c r="K90" t="n">
-        <v>-13.79310344827586</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L90" t="n">
         <v>265750</v>
@@ -4869,7 +4891,7 @@
         <v>17200</v>
       </c>
       <c r="K91" t="n">
-        <v>-15.25423728813559</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L91" t="n">
         <v>265640</v>
@@ -4920,7 +4942,7 @@
         <v>17600</v>
       </c>
       <c r="K92" t="n">
-        <v>-33.33333333333333</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L92" t="n">
         <v>265500</v>
@@ -4971,7 +4993,7 @@
         <v>18000</v>
       </c>
       <c r="K93" t="n">
-        <v>-26.92307692307692</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L93" t="n">
         <v>265410</v>
@@ -5022,7 +5044,7 @@
         <v>18300</v>
       </c>
       <c r="K94" t="n">
-        <v>-26.92307692307692</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L94" t="n">
         <v>265310</v>
@@ -5073,7 +5095,7 @@
         <v>18500</v>
       </c>
       <c r="K95" t="n">
-        <v>-28.30188679245283</v>
+        <v>-50</v>
       </c>
       <c r="L95" t="n">
         <v>265190</v>
@@ -5124,7 +5146,7 @@
         <v>18600</v>
       </c>
       <c r="K96" t="n">
-        <v>-26.92307692307692</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L96" t="n">
         <v>265060</v>
@@ -5175,7 +5197,7 @@
         <v>18700</v>
       </c>
       <c r="K97" t="n">
-        <v>-41.66666666666667</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L97" t="n">
         <v>264980</v>
@@ -5226,7 +5248,7 @@
         <v>18800</v>
       </c>
       <c r="K98" t="n">
-        <v>-41.66666666666667</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L98" t="n">
         <v>264900</v>
@@ -5277,7 +5299,7 @@
         <v>19000</v>
       </c>
       <c r="K99" t="n">
-        <v>-47.82608695652174</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L99" t="n">
         <v>264820</v>
@@ -5328,7 +5350,7 @@
         <v>19100</v>
       </c>
       <c r="K100" t="n">
-        <v>-40.90909090909091</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L100" t="n">
         <v>264740</v>
@@ -5379,7 +5401,7 @@
         <v>19200</v>
       </c>
       <c r="K101" t="n">
-        <v>-37.77777777777778</v>
+        <v>-12.5</v>
       </c>
       <c r="L101" t="n">
         <v>264680</v>
@@ -5430,7 +5452,7 @@
         <v>19400</v>
       </c>
       <c r="K102" t="n">
-        <v>-39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>264640</v>
@@ -5481,7 +5503,7 @@
         <v>19500</v>
       </c>
       <c r="K103" t="n">
-        <v>-21.05263157894737</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L103" t="n">
         <v>264650</v>
@@ -5532,7 +5554,7 @@
         <v>19600</v>
       </c>
       <c r="K104" t="n">
-        <v>-37.14285714285715</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L104" t="n">
         <v>264620</v>
@@ -5583,7 +5605,7 @@
         <v>19800</v>
       </c>
       <c r="K105" t="n">
-        <v>-29.72972972972973</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>264630</v>
@@ -5634,7 +5656,7 @@
         <v>20200</v>
       </c>
       <c r="K106" t="n">
-        <v>-36.58536585365854</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L106" t="n">
         <v>264610</v>
@@ -5685,7 +5707,7 @@
         <v>20800</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.317073170731707</v>
+        <v>30</v>
       </c>
       <c r="L107" t="n">
         <v>264660</v>
@@ -5736,7 +5758,7 @@
         <v>21000</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L108" t="n">
         <v>264740</v>
@@ -5787,7 +5809,7 @@
         <v>21300</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.62790697674419</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L109" t="n">
         <v>264770</v>
@@ -5838,7 +5860,7 @@
         <v>21500</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.090909090909092</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L110" t="n">
         <v>264810</v>
@@ -5889,7 +5911,7 @@
         <v>21900</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.8936170212766</v>
+        <v>4</v>
       </c>
       <c r="L111" t="n">
         <v>264800</v>
@@ -5940,7 +5962,7 @@
         <v>22000</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.090909090909092</v>
+        <v>-4</v>
       </c>
       <c r="L112" t="n">
         <v>264800</v>
@@ -5991,7 +6013,7 @@
         <v>22200</v>
       </c>
       <c r="K113" t="n">
-        <v>4.761904761904762</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L113" t="n">
         <v>264810</v>
@@ -6042,7 +6064,7 @@
         <v>22300</v>
       </c>
       <c r="K114" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="L114" t="n">
         <v>264820</v>
@@ -6093,7 +6115,7 @@
         <v>22500</v>
       </c>
       <c r="K115" t="n">
-        <v>-5</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L115" t="n">
         <v>264790</v>
@@ -6144,7 +6166,7 @@
         <v>22800</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.523809523809524</v>
+        <v>-40</v>
       </c>
       <c r="L116" t="n">
         <v>264770</v>
@@ -6195,7 +6217,7 @@
         <v>22800</v>
       </c>
       <c r="K117" t="n">
-        <v>-7.317073170731707</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L117" t="n">
         <v>264690</v>
@@ -6246,7 +6268,7 @@
         <v>23000</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L118" t="n">
         <v>264610</v>
@@ -6297,7 +6319,7 @@
         <v>23000</v>
       </c>
       <c r="K119" t="n">
-        <v>-5</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L119" t="n">
         <v>264560</v>
@@ -6399,7 +6421,7 @@
         <v>23900</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.8936170212766</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L121" t="n">
         <v>264460</v>
@@ -6450,7 +6472,7 @@
         <v>24000</v>
       </c>
       <c r="K122" t="n">
-        <v>-13.04347826086956</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L122" t="n">
         <v>264400</v>
@@ -6501,7 +6523,7 @@
         <v>24300</v>
       </c>
       <c r="K123" t="n">
-        <v>-20.83333333333334</v>
+        <v>-50</v>
       </c>
       <c r="L123" t="n">
         <v>264290</v>
@@ -6552,7 +6574,7 @@
         <v>24700</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.803921568627452</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L124" t="n">
         <v>264230</v>
@@ -6603,7 +6625,7 @@
         <v>24800</v>
       </c>
       <c r="K125" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="L125" t="n">
         <v>264180</v>
@@ -6654,7 +6676,7 @@
         <v>24900</v>
       </c>
       <c r="K126" t="n">
-        <v>-10.63829787234043</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>264150</v>
@@ -6705,7 +6727,7 @@
         <v>25000</v>
       </c>
       <c r="K127" t="n">
-        <v>-28.57142857142857</v>
+        <v>-30</v>
       </c>
       <c r="L127" t="n">
         <v>264110</v>
@@ -6756,7 +6778,7 @@
         <v>25000</v>
       </c>
       <c r="K128" t="n">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="L128" t="n">
         <v>264050</v>
@@ -6807,7 +6829,7 @@
         <v>25200</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L129" t="n">
         <v>263970</v>
@@ -6858,7 +6880,7 @@
         <v>25200</v>
       </c>
       <c r="K130" t="n">
-        <v>-40.54054054054054</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L130" t="n">
         <v>263860</v>
@@ -6909,7 +6931,7 @@
         <v>25700</v>
       </c>
       <c r="K131" t="n">
-        <v>-15.78947368421053</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L131" t="n">
         <v>263860</v>
@@ -6960,7 +6982,7 @@
         <v>26100</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.95121951219512</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>263830</v>
@@ -7011,7 +7033,7 @@
         <v>26600</v>
       </c>
       <c r="K133" t="n">
-        <v>-13.63636363636363</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L133" t="n">
         <v>263880</v>
@@ -7062,7 +7084,7 @@
         <v>26600</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.62790697674419</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>263890</v>
@@ -7113,7 +7135,7 @@
         <v>26800</v>
       </c>
       <c r="K135" t="n">
-        <v>-2.325581395348837</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L135" t="n">
         <v>263930</v>
@@ -7164,7 +7186,7 @@
         <v>26900</v>
       </c>
       <c r="K136" t="n">
-        <v>2.439024390243902</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L136" t="n">
         <v>263970</v>
@@ -7215,7 +7237,7 @@
         <v>26900</v>
       </c>
       <c r="K137" t="n">
-        <v>2.439024390243902</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L137" t="n">
         <v>264020</v>
@@ -7266,7 +7288,7 @@
         <v>27000</v>
       </c>
       <c r="K138" t="n">
-        <v>-5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>264060</v>
@@ -7317,7 +7339,7 @@
         <v>27300</v>
       </c>
       <c r="K139" t="n">
-        <v>2.325581395348837</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L139" t="n">
         <v>264150</v>
@@ -7368,7 +7390,7 @@
         <v>27600</v>
       </c>
       <c r="K140" t="n">
-        <v>-11.62790697674419</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L140" t="n">
         <v>264210</v>
@@ -7419,7 +7441,7 @@
         <v>27900</v>
       </c>
       <c r="K141" t="n">
-        <v>10</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L141" t="n">
         <v>264250</v>
@@ -7470,7 +7492,7 @@
         <v>28100</v>
       </c>
       <c r="K142" t="n">
-        <v>7.317073170731707</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L142" t="n">
         <v>264310</v>
@@ -7521,7 +7543,7 @@
         <v>28300</v>
       </c>
       <c r="K143" t="n">
-        <v>10</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L143" t="n">
         <v>264300</v>
@@ -7572,7 +7594,7 @@
         <v>28300</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L144" t="n">
         <v>264290</v>
@@ -7623,7 +7645,7 @@
         <v>28600</v>
       </c>
       <c r="K145" t="n">
-        <v>10.52631578947368</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L145" t="n">
         <v>264290</v>
@@ -7674,7 +7696,7 @@
         <v>28800</v>
       </c>
       <c r="K146" t="n">
-        <v>7.692307692307693</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L146" t="n">
         <v>264280</v>
@@ -7725,7 +7747,7 @@
         <v>29000</v>
       </c>
       <c r="K147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L147" t="n">
         <v>264290</v>
@@ -7776,7 +7798,7 @@
         <v>29000</v>
       </c>
       <c r="K148" t="n">
-        <v>15</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L148" t="n">
         <v>264310</v>
@@ -7827,7 +7849,7 @@
         <v>29000</v>
       </c>
       <c r="K149" t="n">
-        <v>21.05263157894737</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L149" t="n">
         <v>264300</v>
@@ -7878,7 +7900,7 @@
         <v>29100</v>
       </c>
       <c r="K150" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>264330</v>
@@ -7929,7 +7951,7 @@
         <v>29400</v>
       </c>
       <c r="K151" t="n">
-        <v>2.702702702702703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L151" t="n">
         <v>264300</v>
@@ -7980,7 +8002,7 @@
         <v>29400</v>
       </c>
       <c r="K152" t="n">
-        <v>15.15151515151515</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>264290</v>
@@ -8031,7 +8053,7 @@
         <v>29600</v>
       </c>
       <c r="K153" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L153" t="n">
         <v>264320</v>
@@ -8082,7 +8104,7 @@
         <v>29800</v>
       </c>
       <c r="K154" t="n">
-        <v>12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L154" t="n">
         <v>264370</v>
@@ -8133,7 +8155,7 @@
         <v>29800</v>
       </c>
       <c r="K155" t="n">
-        <v>6.666666666666667</v>
+        <v>40</v>
       </c>
       <c r="L155" t="n">
         <v>264390</v>
@@ -8184,7 +8206,7 @@
         <v>30000</v>
       </c>
       <c r="K156" t="n">
-        <v>16.12903225806452</v>
+        <v>40</v>
       </c>
       <c r="L156" t="n">
         <v>264450</v>
@@ -8235,7 +8257,7 @@
         <v>30100</v>
       </c>
       <c r="K157" t="n">
-        <v>18.75</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L157" t="n">
         <v>264500</v>
@@ -8286,7 +8308,7 @@
         <v>30300</v>
       </c>
       <c r="K158" t="n">
-        <v>15.15151515151515</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L158" t="n">
         <v>264530</v>
@@ -8337,7 +8359,7 @@
         <v>30400</v>
       </c>
       <c r="K159" t="n">
-        <v>3.225806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L159" t="n">
         <v>264550</v>
@@ -8388,7 +8410,7 @@
         <v>30400</v>
       </c>
       <c r="K160" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L160" t="n">
         <v>264560</v>
@@ -8439,7 +8461,7 @@
         <v>30400</v>
       </c>
       <c r="K161" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L161" t="n">
         <v>264600</v>
@@ -8490,7 +8512,7 @@
         <v>30700</v>
       </c>
       <c r="K162" t="n">
-        <v>23.07692307692308</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L162" t="n">
         <v>264670</v>
@@ -8541,7 +8563,7 @@
         <v>30900</v>
       </c>
       <c r="K163" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>264700</v>
@@ -8592,7 +8614,7 @@
         <v>31000</v>
       </c>
       <c r="K164" t="n">
-        <v>25.92592592592592</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L164" t="n">
         <v>264720</v>
@@ -8643,7 +8665,7 @@
         <v>31200</v>
       </c>
       <c r="K165" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L165" t="n">
         <v>264720</v>
@@ -8694,7 +8716,7 @@
         <v>31200</v>
       </c>
       <c r="K166" t="n">
-        <v>16.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L166" t="n">
         <v>264700</v>
@@ -8745,7 +8767,7 @@
         <v>31400</v>
       </c>
       <c r="K167" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L167" t="n">
         <v>264690</v>
@@ -8796,7 +8818,7 @@
         <v>31600</v>
       </c>
       <c r="K168" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>264680</v>
@@ -8847,7 +8869,7 @@
         <v>31700</v>
       </c>
       <c r="K169" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L169" t="n">
         <v>264690</v>
@@ -8898,7 +8920,7 @@
         <v>32000</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L170" t="n">
         <v>264670</v>
@@ -8949,7 +8971,7 @@
         <v>32000</v>
       </c>
       <c r="K171" t="n">
-        <v>7.692307692307693</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L171" t="n">
         <v>264650</v>
@@ -9000,7 +9022,7 @@
         <v>32300</v>
       </c>
       <c r="K172" t="n">
-        <v>-3.448275862068965</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L172" t="n">
         <v>264570</v>
@@ -9051,7 +9073,7 @@
         <v>32400</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.28571428571428</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L173" t="n">
         <v>264500</v>
@@ -9102,7 +9124,7 @@
         <v>33700</v>
       </c>
       <c r="K174" t="n">
-        <v>17.94871794871795</v>
+        <v>28</v>
       </c>
       <c r="L174" t="n">
         <v>264550</v>
@@ -9153,7 +9175,7 @@
         <v>33800</v>
       </c>
       <c r="K175" t="n">
-        <v>15</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L175" t="n">
         <v>264610</v>
@@ -9204,7 +9226,7 @@
         <v>33800</v>
       </c>
       <c r="K176" t="n">
-        <v>10.52631578947368</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L176" t="n">
         <v>264670</v>
@@ -9255,7 +9277,7 @@
         <v>34100</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L177" t="n">
         <v>264680</v>
@@ -9306,7 +9328,7 @@
         <v>34600</v>
       </c>
       <c r="K178" t="n">
-        <v>16.27906976744186</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L178" t="n">
         <v>264760</v>
@@ -9357,7 +9379,7 @@
         <v>34700</v>
       </c>
       <c r="K179" t="n">
-        <v>16.27906976744186</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>264820</v>
@@ -9408,7 +9430,7 @@
         <v>35400</v>
       </c>
       <c r="K180" t="n">
-        <v>28</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L180" t="n">
         <v>264980</v>
@@ -9459,7 +9481,7 @@
         <v>36100</v>
       </c>
       <c r="K181" t="n">
-        <v>12.28070175438596</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L181" t="n">
         <v>265070</v>
@@ -9510,7 +9532,7 @@
         <v>36500</v>
       </c>
       <c r="K182" t="n">
-        <v>13.79310344827586</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L182" t="n">
         <v>265230</v>
@@ -9561,7 +9583,7 @@
         <v>36700</v>
       </c>
       <c r="K183" t="n">
-        <v>20.68965517241379</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
         <v>265420</v>
@@ -9612,7 +9634,7 @@
         <v>36800</v>
       </c>
       <c r="K184" t="n">
-        <v>20.68965517241379</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L184" t="n">
         <v>265490</v>
@@ -9663,7 +9685,7 @@
         <v>37400</v>
       </c>
       <c r="K185" t="n">
-        <v>32.25806451612903</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L185" t="n">
         <v>265630</v>
@@ -9714,7 +9736,7 @@
         <v>37800</v>
       </c>
       <c r="K186" t="n">
-        <v>24.24242424242424</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L186" t="n">
         <v>265730</v>
@@ -9765,7 +9787,7 @@
         <v>38100</v>
       </c>
       <c r="K187" t="n">
-        <v>25.37313432835821</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L187" t="n">
         <v>265890</v>
@@ -9816,7 +9838,7 @@
         <v>38500</v>
       </c>
       <c r="K188" t="n">
-        <v>33.33333333333333</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L188" t="n">
         <v>266040</v>
@@ -9867,7 +9889,7 @@
         <v>40100</v>
       </c>
       <c r="K189" t="n">
-        <v>45.23809523809524</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L189" t="n">
         <v>266360</v>
@@ -9918,7 +9940,7 @@
         <v>41300</v>
       </c>
       <c r="K190" t="n">
-        <v>56.98924731182796</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L190" t="n">
         <v>266730</v>
@@ -9969,7 +9991,7 @@
         <v>41500</v>
       </c>
       <c r="K191" t="n">
-        <v>53.68421052631579</v>
+        <v>76</v>
       </c>
       <c r="L191" t="n">
         <v>267150</v>
@@ -10020,7 +10042,7 @@
         <v>42000</v>
       </c>
       <c r="K192" t="n">
-        <v>60.82474226804123</v>
+        <v>77.35849056603774</v>
       </c>
       <c r="L192" t="n">
         <v>267580</v>
@@ -10071,7 +10093,7 @@
         <v>43000</v>
       </c>
       <c r="K193" t="n">
-        <v>66.0377358490566</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L193" t="n">
         <v>268090</v>
@@ -10122,7 +10144,7 @@
         <v>43900</v>
       </c>
       <c r="K194" t="n">
-        <v>47.05882352941176</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L194" t="n">
         <v>268500</v>
@@ -10173,7 +10195,7 @@
         <v>43900</v>
       </c>
       <c r="K195" t="n">
-        <v>48.51485148514851</v>
+        <v>63.9344262295082</v>
       </c>
       <c r="L195" t="n">
         <v>268850</v>
@@ -10224,7 +10246,7 @@
         <v>44000</v>
       </c>
       <c r="K196" t="n">
-        <v>47.05882352941176</v>
+        <v>59.32203389830508</v>
       </c>
       <c r="L196" t="n">
         <v>269230</v>
@@ -10275,7 +10297,7 @@
         <v>44200</v>
       </c>
       <c r="K197" t="n">
-        <v>52.47524752475248</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L197" t="n">
         <v>269600</v>
@@ -10326,7 +10348,7 @@
         <v>44400</v>
       </c>
       <c r="K198" t="n">
-        <v>51.02040816326531</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L198" t="n">
         <v>269950</v>
@@ -10377,7 +10399,7 @@
         <v>44700</v>
       </c>
       <c r="K199" t="n">
-        <v>54</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L199" t="n">
         <v>270170</v>
@@ -10428,7 +10450,7 @@
         <v>44800</v>
       </c>
       <c r="K200" t="n">
-        <v>51.06382978723404</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L200" t="n">
         <v>270280</v>
@@ -10479,7 +10501,7 @@
         <v>44900</v>
       </c>
       <c r="K201" t="n">
-        <v>63.63636363636363</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L201" t="n">
         <v>270420</v>
@@ -10530,7 +10552,7 @@
         <v>44900</v>
       </c>
       <c r="K202" t="n">
-        <v>61.90476190476191</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L202" t="n">
         <v>270510</v>
@@ -10581,7 +10603,7 @@
         <v>45100</v>
       </c>
       <c r="K203" t="n">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>270480</v>
@@ -10632,7 +10654,7 @@
         <v>45300</v>
       </c>
       <c r="K204" t="n">
-        <v>57.64705882352941</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L204" t="n">
         <v>270560</v>
@@ -10683,7 +10705,7 @@
         <v>45500</v>
       </c>
       <c r="K205" t="n">
-        <v>55.55555555555556</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>270660</v>
@@ -10734,7 +10756,7 @@
         <v>46100</v>
       </c>
       <c r="K206" t="n">
-        <v>51.80722891566265</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L206" t="n">
         <v>270710</v>
@@ -10785,7 +10807,7 @@
         <v>46200</v>
       </c>
       <c r="K207" t="n">
-        <v>48.14814814814815</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>270730</v>
@@ -10836,7 +10858,7 @@
         <v>46200</v>
       </c>
       <c r="K208" t="n">
-        <v>45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L208" t="n">
         <v>270730</v>
@@ -10887,7 +10909,7 @@
         <v>46300</v>
       </c>
       <c r="K209" t="n">
-        <v>29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>270690</v>
@@ -10938,7 +10960,7 @@
         <v>46600</v>
       </c>
       <c r="K210" t="n">
-        <v>16.9811320754717</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L210" t="n">
         <v>270670</v>
@@ -10989,7 +11011,7 @@
         <v>46700</v>
       </c>
       <c r="K211" t="n">
-        <v>19.23076923076923</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L211" t="n">
         <v>270630</v>
@@ -11040,7 +11062,7 @@
         <v>47100</v>
       </c>
       <c r="K212" t="n">
-        <v>17.64705882352941</v>
+        <v>10</v>
       </c>
       <c r="L212" t="n">
         <v>270630</v>
@@ -11091,7 +11113,7 @@
         <v>47100</v>
       </c>
       <c r="K213" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>270650</v>
@@ -11142,7 +11164,7 @@
         <v>47500</v>
       </c>
       <c r="K214" t="n">
-        <v>33.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="L214" t="n">
         <v>270690</v>
@@ -11193,7 +11215,7 @@
         <v>49200</v>
       </c>
       <c r="K215" t="n">
-        <v>54.71698113207547</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L215" t="n">
         <v>270880</v>
@@ -11244,7 +11266,7 @@
         <v>51700</v>
       </c>
       <c r="K216" t="n">
-        <v>71.42857142857143</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="L216" t="n">
         <v>271380</v>
@@ -11295,7 +11317,7 @@
         <v>52100</v>
       </c>
       <c r="K217" t="n">
-        <v>62.0253164556962</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="L217" t="n">
         <v>271850</v>
@@ -11346,7 +11368,7 @@
         <v>52200</v>
       </c>
       <c r="K218" t="n">
-        <v>58.97435897435898</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="L218" t="n">
         <v>272310</v>
@@ -11397,7 +11419,7 @@
         <v>52300</v>
       </c>
       <c r="K219" t="n">
-        <v>57.89473684210527</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L219" t="n">
         <v>272790</v>
@@ -11448,7 +11470,7 @@
         <v>52700</v>
       </c>
       <c r="K220" t="n">
-        <v>59.49367088607595</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L220" t="n">
         <v>273280</v>
@@ -11499,7 +11521,7 @@
         <v>53100</v>
       </c>
       <c r="K221" t="n">
-        <v>51.21951219512195</v>
+        <v>70</v>
       </c>
       <c r="L221" t="n">
         <v>273740</v>
@@ -11550,7 +11572,7 @@
         <v>53400</v>
       </c>
       <c r="K222" t="n">
-        <v>52.94117647058824</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L222" t="n">
         <v>274190</v>
@@ -11601,7 +11623,7 @@
         <v>54000</v>
       </c>
       <c r="K223" t="n">
-        <v>46.06741573033708</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L223" t="n">
         <v>274580</v>
@@ -11652,7 +11674,7 @@
         <v>54300</v>
       </c>
       <c r="K224" t="n">
-        <v>46.66666666666666</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L224" t="n">
         <v>274960</v>
@@ -11703,7 +11725,7 @@
         <v>54400</v>
       </c>
       <c r="K225" t="n">
-        <v>46.06741573033708</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L225" t="n">
         <v>275180</v>
@@ -11754,7 +11776,7 @@
         <v>54500</v>
       </c>
       <c r="K226" t="n">
-        <v>57.14285714285714</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L226" t="n">
         <v>275160</v>
@@ -11805,7 +11827,7 @@
         <v>54800</v>
       </c>
       <c r="K227" t="n">
-        <v>60.46511627906976</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L227" t="n">
         <v>275210</v>
@@ -11856,7 +11878,7 @@
         <v>55400</v>
       </c>
       <c r="K228" t="n">
-        <v>50</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L228" t="n">
         <v>275210</v>
@@ -11907,7 +11929,7 @@
         <v>57400</v>
       </c>
       <c r="K229" t="n">
-        <v>60.36036036036037</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L229" t="n">
         <v>275400</v>
@@ -11958,7 +11980,7 @@
         <v>58300</v>
       </c>
       <c r="K230" t="n">
-        <v>47.008547008547</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L230" t="n">
         <v>275460</v>
@@ -12009,7 +12031,7 @@
         <v>59400</v>
       </c>
       <c r="K231" t="n">
-        <v>35.43307086614173</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L231" t="n">
         <v>275450</v>
@@ -12060,7 +12082,7 @@
         <v>59800</v>
       </c>
       <c r="K232" t="n">
-        <v>29.13385826771653</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L232" t="n">
         <v>275370</v>
@@ -12111,7 +12133,7 @@
         <v>60300</v>
       </c>
       <c r="K233" t="n">
-        <v>24.24242424242424</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L233" t="n">
         <v>275300</v>
@@ -12162,7 +12184,7 @@
         <v>60400</v>
       </c>
       <c r="K234" t="n">
-        <v>20.93023255813954</v>
+        <v>-20</v>
       </c>
       <c r="L234" t="n">
         <v>275190</v>
@@ -12213,7 +12235,7 @@
         <v>60600</v>
       </c>
       <c r="K235" t="n">
-        <v>7.017543859649122</v>
+        <v>-24.59016393442623</v>
       </c>
       <c r="L235" t="n">
         <v>275050</v>
@@ -12264,7 +12286,7 @@
         <v>61000</v>
       </c>
       <c r="K236" t="n">
-        <v>-13.97849462365591</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L236" t="n">
         <v>274940</v>
@@ -12315,7 +12337,7 @@
         <v>61000</v>
       </c>
       <c r="K237" t="n">
-        <v>-10.1123595505618</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>274800</v>
@@ -12366,7 +12388,7 @@
         <v>61100</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.865168539325842</v>
+        <v>-72.97297297297297</v>
       </c>
       <c r="L238" t="n">
         <v>274730</v>
@@ -12417,7 +12439,7 @@
         <v>61500</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.04347826086956</v>
+        <v>-68.75</v>
       </c>
       <c r="L239" t="n">
         <v>274420</v>
@@ -12468,7 +12490,7 @@
         <v>61700</v>
       </c>
       <c r="K240" t="n">
-        <v>-20</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L240" t="n">
         <v>274180</v>
@@ -12519,7 +12541,7 @@
         <v>61900</v>
       </c>
       <c r="K241" t="n">
-        <v>-13.63636363636363</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>274070</v>
@@ -12570,7 +12592,7 @@
         <v>62000</v>
       </c>
       <c r="K242" t="n">
-        <v>-16.27906976744186</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L242" t="n">
         <v>274010</v>
@@ -12621,7 +12643,7 @@
         <v>62000</v>
       </c>
       <c r="K243" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>274000</v>
@@ -12672,7 +12694,7 @@
         <v>62200</v>
       </c>
       <c r="K244" t="n">
-        <v>-16.45569620253164</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>273980</v>
@@ -12723,7 +12745,7 @@
         <v>62500</v>
       </c>
       <c r="K245" t="n">
-        <v>-13.58024691358025</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L245" t="n">
         <v>274010</v>
@@ -12774,7 +12796,7 @@
         <v>62600</v>
       </c>
       <c r="K246" t="n">
-        <v>-16.04938271604938</v>
+        <v>-12.5</v>
       </c>
       <c r="L246" t="n">
         <v>273990</v>
@@ -12825,7 +12847,7 @@
         <v>62800</v>
       </c>
       <c r="K247" t="n">
-        <v>-17.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L247" t="n">
         <v>273990</v>
@@ -12876,7 +12898,7 @@
         <v>63200</v>
       </c>
       <c r="K248" t="n">
-        <v>-15.38461538461539</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L248" t="n">
         <v>273940</v>
@@ -12927,7 +12949,7 @@
         <v>63400</v>
       </c>
       <c r="K249" t="n">
-        <v>-50</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L249" t="n">
         <v>273950</v>
@@ -12978,7 +13000,7 @@
         <v>63400</v>
       </c>
       <c r="K250" t="n">
-        <v>-41.17647058823529</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L250" t="n">
         <v>273980</v>
@@ -13029,7 +13051,7 @@
         <v>63800</v>
       </c>
       <c r="K251" t="n">
-        <v>-31.81818181818182</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L251" t="n">
         <v>273950</v>
@@ -13080,7 +13102,7 @@
         <v>63900</v>
       </c>
       <c r="K252" t="n">
-        <v>-21.95121951219512</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L252" t="n">
         <v>273920</v>
@@ -13131,7 +13153,7 @@
         <v>64400</v>
       </c>
       <c r="K253" t="n">
-        <v>2.439024390243902</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L253" t="n">
         <v>273940</v>
@@ -13182,7 +13204,7 @@
         <v>64400</v>
       </c>
       <c r="K254" t="n">
-        <v>5</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L254" t="n">
         <v>273980</v>
@@ -13233,7 +13255,7 @@
         <v>64400</v>
       </c>
       <c r="K255" t="n">
-        <v>10.52631578947368</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L255" t="n">
         <v>273990</v>
@@ -13284,7 +13306,7 @@
         <v>64700</v>
       </c>
       <c r="K256" t="n">
-        <v>8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L256" t="n">
         <v>274040</v>
@@ -13335,7 +13357,7 @@
         <v>64900</v>
       </c>
       <c r="K257" t="n">
-        <v>2.564102564102564</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L257" t="n">
         <v>274050</v>
@@ -13386,7 +13408,7 @@
         <v>65200</v>
       </c>
       <c r="K258" t="n">
-        <v>7.317073170731707</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>274130</v>
@@ -13437,7 +13459,7 @@
         <v>65600</v>
       </c>
       <c r="K259" t="n">
-        <v>7.317073170731707</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L259" t="n">
         <v>274150</v>
@@ -13488,7 +13510,7 @@
         <v>65800</v>
       </c>
       <c r="K260" t="n">
-        <v>7.317073170731707</v>
+        <v>20</v>
       </c>
       <c r="L260" t="n">
         <v>274150</v>
@@ -13539,7 +13561,7 @@
         <v>66100</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>274160</v>
@@ -13590,7 +13612,7 @@
         <v>66300</v>
       </c>
       <c r="K262" t="n">
-        <v>-2.325581395348837</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L262" t="n">
         <v>274180</v>
@@ -13641,7 +13663,7 @@
         <v>66800</v>
       </c>
       <c r="K263" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>274100</v>
@@ -13692,7 +13714,7 @@
         <v>67400</v>
       </c>
       <c r="K264" t="n">
-        <v>3.846153846153846</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L264" t="n">
         <v>274080</v>
@@ -13743,7 +13765,7 @@
         <v>68100</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.28571428571428</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L265" t="n">
         <v>273990</v>
@@ -13794,7 +13816,7 @@
         <v>68400</v>
       </c>
       <c r="K266" t="n">
-        <v>-17.24137931034483</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L266" t="n">
         <v>273840</v>
@@ -13845,7 +13867,7 @@
         <v>68700</v>
       </c>
       <c r="K267" t="n">
-        <v>-25.42372881355932</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L267" t="n">
         <v>273680</v>
@@ -13896,7 +13918,7 @@
         <v>68900</v>
       </c>
       <c r="K268" t="n">
-        <v>-15.78947368421053</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L268" t="n">
         <v>273510</v>
@@ -13947,7 +13969,7 @@
         <v>69400</v>
       </c>
       <c r="K269" t="n">
-        <v>-10</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L269" t="n">
         <v>273430</v>
@@ -13998,7 +14020,7 @@
         <v>69600</v>
       </c>
       <c r="K270" t="n">
-        <v>-6.451612903225806</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L270" t="n">
         <v>273390</v>
@@ -14049,7 +14071,7 @@
         <v>70100</v>
       </c>
       <c r="K271" t="n">
-        <v>-7.936507936507936</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L271" t="n">
         <v>273330</v>
@@ -14100,7 +14122,7 @@
         <v>70400</v>
       </c>
       <c r="K272" t="n">
-        <v>-4.615384615384616</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>273280</v>
@@ -14151,7 +14173,7 @@
         <v>70700</v>
       </c>
       <c r="K273" t="n">
-        <v>-17.46031746031746</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L273" t="n">
         <v>273250</v>
@@ -14202,7 +14224,7 @@
         <v>71100</v>
       </c>
       <c r="K274" t="n">
-        <v>-22.38805970149254</v>
+        <v>-20</v>
       </c>
       <c r="L274" t="n">
         <v>273120</v>
@@ -14253,7 +14275,7 @@
         <v>71300</v>
       </c>
       <c r="K275" t="n">
-        <v>-18.84057971014493</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L275" t="n">
         <v>273080</v>
@@ -14304,7 +14326,7 @@
         <v>71700</v>
       </c>
       <c r="K276" t="n">
-        <v>-17.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="L276" t="n">
         <v>273110</v>
@@ -14355,7 +14377,7 @@
         <v>71700</v>
       </c>
       <c r="K277" t="n">
-        <v>-14.70588235294118</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L277" t="n">
         <v>273170</v>
@@ -14406,7 +14428,7 @@
         <v>71700</v>
       </c>
       <c r="K278" t="n">
-        <v>-20</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L278" t="n">
         <v>273210</v>
@@ -14457,7 +14479,7 @@
         <v>71700</v>
       </c>
       <c r="K279" t="n">
-        <v>-14.75409836065574</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L279" t="n">
         <v>273200</v>
@@ -14508,7 +14530,7 @@
         <v>71700</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.86440677966102</v>
+        <v>12.5</v>
       </c>
       <c r="L280" t="n">
         <v>273170</v>
@@ -14559,7 +14581,7 @@
         <v>71700</v>
       </c>
       <c r="K281" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L281" t="n">
         <v>273190</v>
@@ -14610,7 +14632,7 @@
         <v>71700</v>
       </c>
       <c r="K282" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L282" t="n">
         <v>273180</v>
@@ -14661,7 +14683,7 @@
         <v>71800</v>
       </c>
       <c r="K283" t="n">
-        <v>-4</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L283" t="n">
         <v>273190</v>
@@ -14712,7 +14734,7 @@
         <v>71900</v>
       </c>
       <c r="K284" t="n">
-        <v>-15.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L284" t="n">
         <v>273250</v>
@@ -14763,7 +14785,7 @@
         <v>72400</v>
       </c>
       <c r="K285" t="n">
-        <v>-11.62790697674419</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L285" t="n">
         <v>273240</v>
@@ -14814,7 +14836,7 @@
         <v>72700</v>
       </c>
       <c r="K286" t="n">
-        <v>-11.62790697674419</v>
+        <v>-80</v>
       </c>
       <c r="L286" t="n">
         <v>273160</v>
@@ -14865,7 +14887,7 @@
         <v>73200</v>
       </c>
       <c r="K287" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L287" t="n">
         <v>273130</v>
@@ -14916,7 +14938,7 @@
         <v>73500</v>
       </c>
       <c r="K288" t="n">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>273130</v>
@@ -14967,7 +14989,7 @@
         <v>73600</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L289" t="n">
         <v>273140</v>
@@ -15018,7 +15040,7 @@
         <v>73700</v>
       </c>
       <c r="K290" t="n">
-        <v>-2.439024390243902</v>
+        <v>10</v>
       </c>
       <c r="L290" t="n">
         <v>273160</v>
@@ -15069,7 +15091,7 @@
         <v>73900</v>
       </c>
       <c r="K291" t="n">
-        <v>15.78947368421053</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L291" t="n">
         <v>273200</v>
@@ -15120,7 +15142,7 @@
         <v>74100</v>
       </c>
       <c r="K292" t="n">
-        <v>2.702702702702703</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L292" t="n">
         <v>273220</v>
@@ -15171,7 +15193,7 @@
         <v>74100</v>
       </c>
       <c r="K293" t="n">
-        <v>11.76470588235294</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L293" t="n">
         <v>273250</v>
@@ -15222,7 +15244,7 @@
         <v>74300</v>
       </c>
       <c r="K294" t="n">
-        <v>31.25</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L294" t="n">
         <v>273290</v>
@@ -15273,7 +15295,7 @@
         <v>74800</v>
       </c>
       <c r="K295" t="n">
-        <v>37.14285714285715</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L295" t="n">
         <v>273430</v>
@@ -15324,7 +15346,7 @@
         <v>74900</v>
       </c>
       <c r="K296" t="n">
-        <v>31.25</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L296" t="n">
         <v>273610</v>
@@ -15375,7 +15397,7 @@
         <v>75100</v>
       </c>
       <c r="K297" t="n">
-        <v>35.29411764705883</v>
+        <v>75</v>
       </c>
       <c r="L297" t="n">
         <v>273760</v>
@@ -15426,7 +15448,7 @@
         <v>75100</v>
       </c>
       <c r="K298" t="n">
-        <v>35.29411764705883</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>273880</v>
@@ -15477,7 +15499,7 @@
         <v>75300</v>
       </c>
       <c r="K299" t="n">
-        <v>27.77777777777778</v>
+        <v>50</v>
       </c>
       <c r="L299" t="n">
         <v>273970</v>
@@ -15528,7 +15550,7 @@
         <v>75300</v>
       </c>
       <c r="K300" t="n">
-        <v>27.77777777777778</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L300" t="n">
         <v>274050</v>
@@ -15579,7 +15601,7 @@
         <v>75300</v>
       </c>
       <c r="K301" t="n">
-        <v>27.77777777777778</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L301" t="n">
         <v>274110</v>
@@ -15630,7 +15652,7 @@
         <v>75600</v>
       </c>
       <c r="K302" t="n">
-        <v>33.33333333333333</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>274220</v>
@@ -15681,7 +15703,7 @@
         <v>75800</v>
       </c>
       <c r="K303" t="n">
-        <v>30</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L303" t="n">
         <v>274310</v>
@@ -15732,7 +15754,7 @@
         <v>76300</v>
       </c>
       <c r="K304" t="n">
-        <v>13.63636363636363</v>
+        <v>-20</v>
       </c>
       <c r="L304" t="n">
         <v>274330</v>
@@ -15783,7 +15805,7 @@
         <v>76800</v>
       </c>
       <c r="K305" t="n">
-        <v>36.36363636363637</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L305" t="n">
         <v>274350</v>
@@ -15834,7 +15856,7 @@
         <v>77000</v>
       </c>
       <c r="K306" t="n">
-        <v>39.53488372093023</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L306" t="n">
         <v>274340</v>
@@ -15885,7 +15907,7 @@
         <v>77200</v>
       </c>
       <c r="K307" t="n">
-        <v>25</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L307" t="n">
         <v>274290</v>
@@ -15936,7 +15958,7 @@
         <v>77300</v>
       </c>
       <c r="K308" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L308" t="n">
         <v>274230</v>
@@ -15987,7 +16009,7 @@
         <v>77700</v>
       </c>
       <c r="K309" t="n">
-        <v>2.439024390243902</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>274150</v>
@@ -16038,7 +16060,7 @@
         <v>77800</v>
       </c>
       <c r="K310" t="n">
-        <v>2.439024390243902</v>
+        <v>-28</v>
       </c>
       <c r="L310" t="n">
         <v>274080</v>
@@ -16089,7 +16111,7 @@
         <v>77900</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L311" t="n">
         <v>274020</v>
@@ -16140,7 +16162,7 @@
         <v>78100</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L312" t="n">
         <v>273910</v>
@@ -16191,7 +16213,7 @@
         <v>78600</v>
       </c>
       <c r="K313" t="n">
-        <v>11.11111111111111</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L313" t="n">
         <v>273870</v>
@@ -16242,7 +16264,7 @@
         <v>79100</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.166666666666666</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L314" t="n">
         <v>273830</v>
@@ -16293,7 +16315,7 @@
         <v>79100</v>
       </c>
       <c r="K315" t="n">
-        <v>-16.27906976744186</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>273740</v>
@@ -16344,7 +16366,7 @@
         <v>79700</v>
       </c>
       <c r="K316" t="n">
-        <v>-29.16666666666667</v>
+        <v>-44</v>
       </c>
       <c r="L316" t="n">
         <v>273610</v>
@@ -16395,7 +16417,7 @@
         <v>79700</v>
       </c>
       <c r="K317" t="n">
-        <v>-34.78260869565217</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L317" t="n">
         <v>273500</v>
@@ -16446,7 +16468,7 @@
         <v>80700</v>
       </c>
       <c r="K318" t="n">
-        <v>-10.71428571428571</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>273500</v>
@@ -16497,7 +16519,7 @@
         <v>81400</v>
       </c>
       <c r="K319" t="n">
-        <v>-18.0327868852459</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L319" t="n">
         <v>273470</v>
@@ -16548,7 +16570,7 @@
         <v>81600</v>
       </c>
       <c r="K320" t="n">
-        <v>-20.63492063492063</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L320" t="n">
         <v>273410</v>
@@ -16599,7 +16621,7 @@
         <v>82100</v>
       </c>
       <c r="K321" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>273390</v>
@@ -16650,7 +16672,7 @@
         <v>82500</v>
       </c>
       <c r="K322" t="n">
-        <v>-21.73913043478261</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L322" t="n">
         <v>273350</v>
@@ -16701,7 +16723,7 @@
         <v>82500</v>
       </c>
       <c r="K323" t="n">
-        <v>-19.40298507462687</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L323" t="n">
         <v>273260</v>
@@ -16752,7 +16774,7 @@
         <v>82800</v>
       </c>
       <c r="K324" t="n">
-        <v>-16.92307692307692</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L324" t="n">
         <v>273190</v>
@@ -16803,7 +16825,7 @@
         <v>83000</v>
       </c>
       <c r="K325" t="n">
-        <v>-29.03225806451613</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L325" t="n">
         <v>273100</v>
@@ -16854,7 +16876,7 @@
         <v>83100</v>
       </c>
       <c r="K326" t="n">
-        <v>-27.86885245901639</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L326" t="n">
         <v>273060</v>
@@ -16905,7 +16927,7 @@
         <v>83200</v>
       </c>
       <c r="K327" t="n">
-        <v>-23.33333333333333</v>
+        <v>-52</v>
       </c>
       <c r="L327" t="n">
         <v>273030</v>
@@ -16956,7 +16978,7 @@
         <v>83300</v>
       </c>
       <c r="K328" t="n">
-        <v>-20</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L328" t="n">
         <v>272910</v>
@@ -17007,7 +17029,7 @@
         <v>83500</v>
       </c>
       <c r="K329" t="n">
-        <v>-10.3448275862069</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L329" t="n">
         <v>272880</v>
@@ -17058,7 +17080,7 @@
         <v>83600</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.79310344827586</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L330" t="n">
         <v>272860</v>
@@ -17109,7 +17131,7 @@
         <v>83600</v>
       </c>
       <c r="K331" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L331" t="n">
         <v>272790</v>
@@ -17160,7 +17182,7 @@
         <v>83700</v>
       </c>
       <c r="K332" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L332" t="n">
         <v>272750</v>
@@ -17211,7 +17233,7 @@
         <v>83900</v>
       </c>
       <c r="K333" t="n">
-        <v>-20.75471698113208</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L333" t="n">
         <v>272730</v>
@@ -17262,7 +17284,7 @@
         <v>84300</v>
       </c>
       <c r="K334" t="n">
-        <v>-19.23076923076923</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L334" t="n">
         <v>272700</v>
@@ -17313,7 +17335,7 @@
         <v>84600</v>
       </c>
       <c r="K335" t="n">
-        <v>-12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L335" t="n">
         <v>272720</v>
@@ -17364,7 +17386,7 @@
         <v>84800</v>
       </c>
       <c r="K336" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>272730</v>
@@ -17415,7 +17437,7 @@
         <v>84800</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L337" t="n">
         <v>272730</v>
@@ -17466,7 +17488,7 @@
         <v>85100</v>
       </c>
       <c r="K338" t="n">
-        <v>-22.72727272727273</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>272750</v>
@@ -17517,7 +17539,7 @@
         <v>85300</v>
       </c>
       <c r="K339" t="n">
-        <v>-12.82051282051282</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L339" t="n">
         <v>272730</v>
@@ -17568,7 +17590,7 @@
         <v>85500</v>
       </c>
       <c r="K340" t="n">
-        <v>-2.564102564102564</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L340" t="n">
         <v>272740</v>
@@ -17619,7 +17641,7 @@
         <v>85500</v>
       </c>
       <c r="K341" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L341" t="n">
         <v>272750</v>
@@ -17670,7 +17692,7 @@
         <v>85800</v>
       </c>
       <c r="K342" t="n">
-        <v>-15.15151515151515</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L342" t="n">
         <v>272740</v>
@@ -17721,7 +17743,7 @@
         <v>86100</v>
       </c>
       <c r="K343" t="n">
-        <v>-5.555555555555555</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L343" t="n">
         <v>272740</v>
@@ -17772,7 +17794,7 @@
         <v>86100</v>
       </c>
       <c r="K344" t="n">
-        <v>3.03030303030303</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L344" t="n">
         <v>272780</v>
@@ -17823,7 +17845,7 @@
         <v>86200</v>
       </c>
       <c r="K345" t="n">
-        <v>6.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L345" t="n">
         <v>272780</v>
@@ -17874,7 +17896,7 @@
         <v>86200</v>
       </c>
       <c r="K346" t="n">
-        <v>9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>272800</v>
@@ -17925,7 +17947,7 @@
         <v>86200</v>
       </c>
       <c r="K347" t="n">
-        <v>6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L347" t="n">
         <v>272820</v>
@@ -17976,7 +17998,7 @@
         <v>86200</v>
       </c>
       <c r="K348" t="n">
-        <v>3.448275862068965</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L348" t="n">
         <v>272810</v>
@@ -18027,7 +18049,7 @@
         <v>86400</v>
       </c>
       <c r="K349" t="n">
-        <v>-10.3448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>272800</v>
@@ -18078,7 +18100,7 @@
         <v>86600</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L350" t="n">
         <v>272790</v>
@@ -18129,7 +18151,7 @@
         <v>86700</v>
       </c>
       <c r="K351" t="n">
-        <v>3.225806451612903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>272790</v>
@@ -18180,7 +18202,7 @@
         <v>86800</v>
       </c>
       <c r="K352" t="n">
-        <v>9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L352" t="n">
         <v>272830</v>
@@ -18282,7 +18304,7 @@
         <v>87100</v>
       </c>
       <c r="K354" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L354" t="n">
         <v>272810</v>
@@ -18333,7 +18355,7 @@
         <v>87300</v>
       </c>
       <c r="K355" t="n">
-        <v>3.703703703703703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L355" t="n">
         <v>272820</v>
@@ -18384,7 +18406,7 @@
         <v>87300</v>
       </c>
       <c r="K356" t="n">
-        <v>12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L356" t="n">
         <v>272830</v>
@@ -18435,7 +18457,7 @@
         <v>87500</v>
       </c>
       <c r="K357" t="n">
-        <v>3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L357" t="n">
         <v>272820</v>
@@ -18486,7 +18508,7 @@
         <v>87600</v>
       </c>
       <c r="K358" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>272800</v>
@@ -18537,7 +18559,7 @@
         <v>87600</v>
       </c>
       <c r="K359" t="n">
-        <v>-4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L359" t="n">
         <v>272800</v>
@@ -18588,7 +18610,7 @@
         <v>87600</v>
       </c>
       <c r="K360" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>272780</v>
@@ -18639,7 +18661,7 @@
         <v>87700</v>
       </c>
       <c r="K361" t="n">
-        <v>-18.18181818181818</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L361" t="n">
         <v>272740</v>
@@ -18690,7 +18712,7 @@
         <v>87800</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>272700</v>
@@ -18741,7 +18763,7 @@
         <v>88100</v>
       </c>
       <c r="K363" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="L363" t="n">
         <v>272640</v>
@@ -18792,7 +18814,7 @@
         <v>88100</v>
       </c>
       <c r="K364" t="n">
-        <v>-30</v>
+        <v>-75</v>
       </c>
       <c r="L364" t="n">
         <v>272600</v>
@@ -18843,7 +18865,7 @@
         <v>88300</v>
       </c>
       <c r="K365" t="n">
-        <v>-33.33333333333333</v>
+        <v>-80</v>
       </c>
       <c r="L365" t="n">
         <v>272520</v>
@@ -18894,7 +18916,7 @@
         <v>88500</v>
       </c>
       <c r="K366" t="n">
-        <v>-21.73913043478261</v>
+        <v>-40</v>
       </c>
       <c r="L366" t="n">
         <v>272460</v>
@@ -18945,7 +18967,7 @@
         <v>88500</v>
       </c>
       <c r="K367" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>272420</v>
@@ -18996,7 +19018,7 @@
         <v>89000</v>
       </c>
       <c r="K368" t="n">
-        <v>-35.71428571428572</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L368" t="n">
         <v>272340</v>
@@ -19047,7 +19069,7 @@
         <v>89100</v>
       </c>
       <c r="K369" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L369" t="n">
         <v>272250</v>
@@ -19098,7 +19120,7 @@
         <v>89200</v>
       </c>
       <c r="K370" t="n">
-        <v>-38.46153846153847</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>272170</v>
@@ -19149,7 +19171,7 @@
         <v>89500</v>
       </c>
       <c r="K371" t="n">
-        <v>-50</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L371" t="n">
         <v>272070</v>
@@ -19200,7 +19222,7 @@
         <v>90100</v>
       </c>
       <c r="K372" t="n">
-        <v>-27.27272727272727</v>
+        <v>-10</v>
       </c>
       <c r="L372" t="n">
         <v>272020</v>
@@ -19251,7 +19273,7 @@
         <v>90500</v>
       </c>
       <c r="K373" t="n">
-        <v>-11.11111111111111</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L373" t="n">
         <v>272040</v>
@@ -19302,7 +19324,7 @@
         <v>90900</v>
       </c>
       <c r="K374" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>272020</v>
@@ -19353,7 +19375,7 @@
         <v>91000</v>
       </c>
       <c r="K375" t="n">
-        <v>-18.91891891891892</v>
+        <v>-4</v>
       </c>
       <c r="L375" t="n">
         <v>272030</v>
@@ -19404,7 +19426,7 @@
         <v>91500</v>
       </c>
       <c r="K376" t="n">
-        <v>-4.761904761904762</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>272070</v>
@@ -19455,7 +19477,7 @@
         <v>91700</v>
       </c>
       <c r="K377" t="n">
-        <v>4.761904761904762</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L377" t="n">
         <v>272130</v>
@@ -19506,7 +19528,7 @@
         <v>91900</v>
       </c>
       <c r="K378" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L378" t="n">
         <v>272260</v>
@@ -19557,7 +19579,7 @@
         <v>92000</v>
       </c>
       <c r="K379" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L379" t="n">
         <v>272390</v>
@@ -19608,7 +19630,7 @@
         <v>92300</v>
       </c>
       <c r="K380" t="n">
-        <v>2.127659574468085</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L380" t="n">
         <v>272480</v>
@@ -19659,7 +19681,7 @@
         <v>92500</v>
       </c>
       <c r="K381" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L381" t="n">
         <v>272620</v>
@@ -19710,7 +19732,7 @@
         <v>92600</v>
       </c>
       <c r="K382" t="n">
-        <v>8.333333333333332</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L382" t="n">
         <v>272710</v>
@@ -19761,7 +19783,7 @@
         <v>92600</v>
       </c>
       <c r="K383" t="n">
-        <v>15.55555555555556</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L383" t="n">
         <v>272760</v>
@@ -19812,7 +19834,7 @@
         <v>92900</v>
       </c>
       <c r="K384" t="n">
-        <v>8.333333333333332</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L384" t="n">
         <v>272820</v>
@@ -19863,7 +19885,7 @@
         <v>93300</v>
       </c>
       <c r="K385" t="n">
-        <v>20</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L385" t="n">
         <v>272910</v>
@@ -19914,7 +19936,7 @@
         <v>93300</v>
       </c>
       <c r="K386" t="n">
-        <v>16.66666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="L386" t="n">
         <v>272950</v>
@@ -19965,7 +19987,7 @@
         <v>93400</v>
       </c>
       <c r="K387" t="n">
-        <v>14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L387" t="n">
         <v>272960</v>
@@ -20016,7 +20038,7 @@
         <v>93700</v>
       </c>
       <c r="K388" t="n">
-        <v>19.14893617021277</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L388" t="n">
         <v>272920</v>
@@ -20067,7 +20089,7 @@
         <v>94100</v>
       </c>
       <c r="K389" t="n">
-        <v>28</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L389" t="n">
         <v>272930</v>
@@ -20118,7 +20140,7 @@
         <v>94100</v>
       </c>
       <c r="K390" t="n">
-        <v>26.53061224489796</v>
+        <v>12.5</v>
       </c>
       <c r="L390" t="n">
         <v>272970</v>
@@ -20169,7 +20191,7 @@
         <v>94100</v>
       </c>
       <c r="K391" t="n">
-        <v>34.78260869565217</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L391" t="n">
         <v>272990</v>
@@ -20220,7 +20242,7 @@
         <v>94100</v>
       </c>
       <c r="K392" t="n">
-        <v>25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L392" t="n">
         <v>273000</v>
@@ -20271,7 +20293,7 @@
         <v>94100</v>
       </c>
       <c r="K393" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>273010</v>
@@ -20322,7 +20344,7 @@
         <v>94100</v>
       </c>
       <c r="K394" t="n">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>273050</v>
@@ -20373,7 +20395,7 @@
         <v>94100</v>
       </c>
       <c r="K395" t="n">
-        <v>29.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>273050</v>
@@ -20424,7 +20446,7 @@
         <v>94100</v>
       </c>
       <c r="K396" t="n">
-        <v>15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>273050</v>
@@ -20475,7 +20497,7 @@
         <v>94100</v>
       </c>
       <c r="K397" t="n">
-        <v>8.333333333333332</v>
+        <v>100</v>
       </c>
       <c r="L397" t="n">
         <v>273060</v>
@@ -20525,9 +20547,7 @@
       <c r="J398" t="n">
         <v>94100</v>
       </c>
-      <c r="K398" t="n">
-        <v>0</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>273100</v>
       </c>
@@ -20576,9 +20596,7 @@
       <c r="J399" t="n">
         <v>94100</v>
       </c>
-      <c r="K399" t="n">
-        <v>4.761904761904762</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>273100</v>
       </c>
@@ -20627,9 +20645,7 @@
       <c r="J400" t="n">
         <v>94100</v>
       </c>
-      <c r="K400" t="n">
-        <v>22.22222222222222</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>273100</v>
       </c>
@@ -20679,7 +20695,7 @@
         <v>94500</v>
       </c>
       <c r="K401" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L401" t="n">
         <v>273140</v>
@@ -20730,7 +20746,7 @@
         <v>95100</v>
       </c>
       <c r="K402" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L402" t="n">
         <v>273240</v>
@@ -20781,7 +20797,7 @@
         <v>95600</v>
       </c>
       <c r="K403" t="n">
-        <v>53.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L403" t="n">
         <v>273390</v>
@@ -20832,7 +20848,7 @@
         <v>95600</v>
       </c>
       <c r="K404" t="n">
-        <v>70.37037037037037</v>
+        <v>100</v>
       </c>
       <c r="L404" t="n">
         <v>273540</v>
@@ -20883,7 +20899,7 @@
         <v>96000</v>
       </c>
       <c r="K405" t="n">
-        <v>70.37037037037037</v>
+        <v>100</v>
       </c>
       <c r="L405" t="n">
         <v>273730</v>
@@ -20934,7 +20950,7 @@
         <v>96200</v>
       </c>
       <c r="K406" t="n">
-        <v>72.41379310344827</v>
+        <v>100</v>
       </c>
       <c r="L406" t="n">
         <v>273940</v>
@@ -20985,7 +21001,7 @@
         <v>96300</v>
       </c>
       <c r="K407" t="n">
-        <v>72.41379310344827</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L407" t="n">
         <v>274140</v>
@@ -21036,7 +21052,7 @@
         <v>96300</v>
       </c>
       <c r="K408" t="n">
-        <v>92.30769230769231</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L408" t="n">
         <v>274340</v>
@@ -21138,7 +21154,7 @@
         <v>97400</v>
       </c>
       <c r="K410" t="n">
-        <v>27.27272727272727</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L410" t="n">
         <v>274590</v>
@@ -21189,7 +21205,7 @@
         <v>97500</v>
       </c>
       <c r="K411" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>274650</v>
@@ -21240,7 +21256,7 @@
         <v>97700</v>
       </c>
       <c r="K412" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>274630</v>
@@ -21291,7 +21307,7 @@
         <v>97800</v>
       </c>
       <c r="K413" t="n">
-        <v>24.32432432432433</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L413" t="n">
         <v>274570</v>
@@ -21342,7 +21358,7 @@
         <v>98200</v>
       </c>
       <c r="K414" t="n">
-        <v>31.70731707317073</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L414" t="n">
         <v>274550</v>
@@ -21393,7 +21409,7 @@
         <v>98300</v>
       </c>
       <c r="K415" t="n">
-        <v>28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L415" t="n">
         <v>274480</v>
@@ -21444,7 +21460,7 @@
         <v>98400</v>
       </c>
       <c r="K416" t="n">
-        <v>25.58139534883721</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L416" t="n">
         <v>274380</v>
@@ -21495,7 +21511,7 @@
         <v>98800</v>
       </c>
       <c r="K417" t="n">
-        <v>31.91489361702128</v>
+        <v>-20</v>
       </c>
       <c r="L417" t="n">
         <v>274330</v>
@@ -21546,7 +21562,7 @@
         <v>98800</v>
       </c>
       <c r="K418" t="n">
-        <v>31.91489361702128</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L418" t="n">
         <v>274280</v>
@@ -21597,7 +21613,7 @@
         <v>98900</v>
       </c>
       <c r="K419" t="n">
-        <v>29.16666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>274260</v>
@@ -21648,7 +21664,7 @@
         <v>99100</v>
       </c>
       <c r="K420" t="n">
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="L420" t="n">
         <v>274330</v>
@@ -21699,7 +21715,7 @@
         <v>99600</v>
       </c>
       <c r="K421" t="n">
-        <v>13.72549019607843</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L421" t="n">
         <v>274340</v>
@@ -21750,7 +21766,7 @@
         <v>100100</v>
       </c>
       <c r="K422" t="n">
-        <v>12</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L422" t="n">
         <v>274420</v>
@@ -21801,7 +21817,7 @@
         <v>100600</v>
       </c>
       <c r="K423" t="n">
-        <v>-8</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L423" t="n">
         <v>274440</v>
@@ -21852,7 +21868,7 @@
         <v>100600</v>
       </c>
       <c r="K424" t="n">
-        <v>-8</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L424" t="n">
         <v>274420</v>
@@ -21903,7 +21919,7 @@
         <v>100700</v>
       </c>
       <c r="K425" t="n">
-        <v>-14.8936170212766</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L425" t="n">
         <v>274420</v>
@@ -21954,7 +21970,7 @@
         <v>100900</v>
       </c>
       <c r="K426" t="n">
-        <v>-23.40425531914894</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L426" t="n">
         <v>274410</v>
@@ -22005,7 +22021,7 @@
         <v>101100</v>
       </c>
       <c r="K427" t="n">
-        <v>-25</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L427" t="n">
         <v>274340</v>
@@ -22056,7 +22072,7 @@
         <v>101500</v>
       </c>
       <c r="K428" t="n">
-        <v>-30.76923076923077</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L428" t="n">
         <v>274230</v>
@@ -22107,7 +22123,7 @@
         <v>102200</v>
       </c>
       <c r="K429" t="n">
-        <v>-9.090909090909092</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L429" t="n">
         <v>274200</v>
@@ -22158,7 +22174,7 @@
         <v>102300</v>
       </c>
       <c r="K430" t="n">
-        <v>2.040816326530612</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L430" t="n">
         <v>274140</v>
@@ -22209,7 +22225,7 @@
         <v>102400</v>
       </c>
       <c r="K431" t="n">
-        <v>-2.040816326530612</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L431" t="n">
         <v>274120</v>
@@ -22260,7 +22276,7 @@
         <v>102600</v>
       </c>
       <c r="K432" t="n">
-        <v>-2.040816326530612</v>
+        <v>-20</v>
       </c>
       <c r="L432" t="n">
         <v>274030</v>
@@ -22311,7 +22327,7 @@
         <v>103200</v>
       </c>
       <c r="K433" t="n">
-        <v>7.407407407407407</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L433" t="n">
         <v>274050</v>
@@ -22362,7 +22378,7 @@
         <v>103700</v>
       </c>
       <c r="K434" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L434" t="n">
         <v>274020</v>
@@ -22413,7 +22429,7 @@
         <v>103800</v>
       </c>
       <c r="K435" t="n">
-        <v>-5.454545454545454</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L435" t="n">
         <v>273990</v>
@@ -22464,7 +22480,7 @@
         <v>103800</v>
       </c>
       <c r="K436" t="n">
-        <v>-3.703703703703703</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L436" t="n">
         <v>273980</v>
@@ -22515,7 +22531,7 @@
         <v>104900</v>
       </c>
       <c r="K437" t="n">
-        <v>8.196721311475409</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L437" t="n">
         <v>274100</v>
@@ -22566,7 +22582,7 @@
         <v>107000</v>
       </c>
       <c r="K438" t="n">
-        <v>-19.51219512195122</v>
+        <v>-25</v>
       </c>
       <c r="L438" t="n">
         <v>274050</v>
@@ -22617,7 +22633,7 @@
         <v>107400</v>
       </c>
       <c r="K439" t="n">
-        <v>-12.94117647058824</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L439" t="n">
         <v>273970</v>
@@ -22668,7 +22684,7 @@
         <v>110100</v>
       </c>
       <c r="K440" t="n">
-        <v>-36.36363636363637</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L440" t="n">
         <v>273630</v>
@@ -22719,7 +22735,7 @@
         <v>111400</v>
       </c>
       <c r="K441" t="n">
-        <v>-40.67796610169492</v>
+        <v>-50</v>
       </c>
       <c r="L441" t="n">
         <v>273170</v>
@@ -22770,7 +22786,7 @@
         <v>112000</v>
       </c>
       <c r="K442" t="n">
-        <v>-39.49579831932773</v>
+        <v>-50</v>
       </c>
       <c r="L442" t="n">
         <v>272790</v>
@@ -22821,7 +22837,7 @@
         <v>112200</v>
       </c>
       <c r="K443" t="n">
-        <v>-34.48275862068966</v>
+        <v>-43.52941176470588</v>
       </c>
       <c r="L443" t="n">
         <v>272370</v>
@@ -22872,7 +22888,7 @@
         <v>112700</v>
       </c>
       <c r="K444" t="n">
-        <v>-28.92561983471074</v>
+        <v>-37.07865168539326</v>
       </c>
       <c r="L444" t="n">
         <v>272050</v>
@@ -22923,7 +22939,7 @@
         <v>112900</v>
       </c>
       <c r="K445" t="n">
-        <v>-31.14754098360656</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L445" t="n">
         <v>271700</v>
@@ -22974,7 +22990,7 @@
         <v>113300</v>
       </c>
       <c r="K446" t="n">
-        <v>-25.80645161290322</v>
+        <v>-50</v>
       </c>
       <c r="L446" t="n">
         <v>271390</v>
@@ -23025,7 +23041,7 @@
         <v>114200</v>
       </c>
       <c r="K447" t="n">
-        <v>-29.77099236641221</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L447" t="n">
         <v>270880</v>
@@ -23076,7 +23092,7 @@
         <v>114400</v>
       </c>
       <c r="K448" t="n">
-        <v>-25.58139534883721</v>
+        <v>-45.71428571428572</v>
       </c>
       <c r="L448" t="n">
         <v>270600</v>
@@ -23127,7 +23143,7 @@
         <v>114400</v>
       </c>
       <c r="K449" t="n">
-        <v>-32.78688524590164</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L449" t="n">
         <v>270280</v>
@@ -23178,7 +23194,7 @@
         <v>114900</v>
       </c>
       <c r="K450" t="n">
-        <v>-34.92063492063492</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L450" t="n">
         <v>270180</v>
@@ -23229,7 +23245,7 @@
         <v>115800</v>
       </c>
       <c r="K451" t="n">
-        <v>-38.80597014925373</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L451" t="n">
         <v>270120</v>
@@ -23280,7 +23296,7 @@
         <v>116500</v>
       </c>
       <c r="K452" t="n">
-        <v>-41.00719424460431</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L452" t="n">
         <v>269930</v>
@@ -23331,7 +23347,7 @@
         <v>117400</v>
       </c>
       <c r="K453" t="n">
-        <v>-38.0281690140845</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L453" t="n">
         <v>269810</v>
@@ -23382,7 +23398,7 @@
         <v>117400</v>
       </c>
       <c r="K454" t="n">
-        <v>-35.76642335766424</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>269640</v>
@@ -23433,7 +23449,7 @@
         <v>117400</v>
       </c>
       <c r="K455" t="n">
-        <v>-36.76470588235294</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L455" t="n">
         <v>269490</v>
@@ -23484,7 +23500,7 @@
         <v>118200</v>
       </c>
       <c r="K456" t="n">
-        <v>-29.16666666666667</v>
+        <v>-5</v>
       </c>
       <c r="L456" t="n">
         <v>269380</v>
@@ -23535,7 +23551,7 @@
         <v>118900</v>
       </c>
       <c r="K457" t="n">
-        <v>-32.85714285714285</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L457" t="n">
         <v>269430</v>
@@ -23586,7 +23602,7 @@
         <v>118900</v>
       </c>
       <c r="K458" t="n">
-        <v>-21.00840336134454</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L458" t="n">
         <v>269460</v>
@@ -23637,7 +23653,7 @@
         <v>119200</v>
       </c>
       <c r="K459" t="n">
-        <v>-27.11864406779661</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L459" t="n">
         <v>269460</v>
@@ -23688,7 +23704,7 @@
         <v>119500</v>
       </c>
       <c r="K460" t="n">
-        <v>-8.51063829787234</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L460" t="n">
         <v>269480</v>
@@ -23739,7 +23755,7 @@
         <v>119600</v>
       </c>
       <c r="K461" t="n">
-        <v>4.878048780487805</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L461" t="n">
         <v>269580</v>
@@ -23790,7 +23806,7 @@
         <v>120000</v>
       </c>
       <c r="K462" t="n">
-        <v>-7.5</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L462" t="n">
         <v>269710</v>
@@ -23841,7 +23857,7 @@
         <v>120400</v>
       </c>
       <c r="K463" t="n">
-        <v>-4.878048780487805</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L463" t="n">
         <v>269790</v>
@@ -23892,7 +23908,7 @@
         <v>121100</v>
       </c>
       <c r="K464" t="n">
-        <v>-19.04761904761905</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L464" t="n">
         <v>269800</v>
@@ -23943,7 +23959,7 @@
         <v>121500</v>
       </c>
       <c r="K465" t="n">
-        <v>-11.62790697674419</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L465" t="n">
         <v>269850</v>
@@ -23994,7 +24010,7 @@
         <v>122100</v>
       </c>
       <c r="K466" t="n">
-        <v>-22.72727272727273</v>
+        <v>-50</v>
       </c>
       <c r="L466" t="n">
         <v>269760</v>
@@ -24045,7 +24061,7 @@
         <v>122600</v>
       </c>
       <c r="K467" t="n">
-        <v>-7.142857142857142</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L467" t="n">
         <v>269650</v>
@@ -24096,7 +24112,7 @@
         <v>123000</v>
       </c>
       <c r="K468" t="n">
-        <v>-4.651162790697675</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L468" t="n">
         <v>269580</v>
@@ -24147,7 +24163,7 @@
         <v>123300</v>
       </c>
       <c r="K469" t="n">
-        <v>-7.865168539325842</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L469" t="n">
         <v>269510</v>
@@ -24198,7 +24214,7 @@
         <v>124300</v>
       </c>
       <c r="K470" t="n">
-        <v>8.51063829787234</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L470" t="n">
         <v>269570</v>
@@ -24249,7 +24265,7 @@
         <v>124700</v>
       </c>
       <c r="K471" t="n">
-        <v>14.60674157303371</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L471" t="n">
         <v>269600</v>
@@ -24300,7 +24316,7 @@
         <v>124900</v>
       </c>
       <c r="K472" t="n">
-        <v>26.19047619047619</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L472" t="n">
         <v>269690</v>
@@ -24351,7 +24367,7 @@
         <v>125500</v>
       </c>
       <c r="K473" t="n">
-        <v>8.641975308641975</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L473" t="n">
         <v>269680</v>
@@ -24402,7 +24418,7 @@
         <v>125700</v>
       </c>
       <c r="K474" t="n">
-        <v>10.8433734939759</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L474" t="n">
         <v>269760</v>
@@ -24453,7 +24469,7 @@
         <v>125800</v>
       </c>
       <c r="K475" t="n">
-        <v>11.9047619047619</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L475" t="n">
         <v>269810</v>
@@ -24504,7 +24520,7 @@
         <v>126100</v>
       </c>
       <c r="K476" t="n">
-        <v>-1.265822784810127</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L476" t="n">
         <v>269890</v>
@@ -24555,7 +24571,7 @@
         <v>126200</v>
       </c>
       <c r="K477" t="n">
-        <v>-12.32876712328767</v>
+        <v>-6.25</v>
       </c>
       <c r="L477" t="n">
         <v>269910</v>
@@ -24606,7 +24622,7 @@
         <v>126200</v>
       </c>
       <c r="K478" t="n">
-        <v>-12.32876712328767</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L478" t="n">
         <v>269890</v>
@@ -24657,7 +24673,7 @@
         <v>126900</v>
       </c>
       <c r="K479" t="n">
-        <v>1.298701298701299</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L479" t="n">
         <v>269970</v>
@@ -24708,7 +24724,7 @@
         <v>127300</v>
       </c>
       <c r="K480" t="n">
-        <v>10.25641025641026</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L480" t="n">
         <v>269990</v>
@@ -24759,7 +24775,7 @@
         <v>127600</v>
       </c>
       <c r="K481" t="n">
-        <v>15</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L481" t="n">
         <v>270080</v>
@@ -24810,7 +24826,7 @@
         <v>128100</v>
       </c>
       <c r="K482" t="n">
-        <v>13.58024691358025</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L482" t="n">
         <v>270100</v>
@@ -24861,7 +24877,7 @@
         <v>128200</v>
       </c>
       <c r="K483" t="n">
-        <v>10.25641025641026</v>
+        <v>28</v>
       </c>
       <c r="L483" t="n">
         <v>270190</v>
@@ -24912,7 +24928,7 @@
         <v>128700</v>
       </c>
       <c r="K484" t="n">
-        <v>13.1578947368421</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L484" t="n">
         <v>270210</v>
@@ -24963,7 +24979,7 @@
         <v>129100</v>
       </c>
       <c r="K485" t="n">
-        <v>13.1578947368421</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L485" t="n">
         <v>270260</v>
@@ -25014,7 +25030,7 @@
         <v>129600</v>
       </c>
       <c r="K486" t="n">
-        <v>14.66666666666667</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L486" t="n">
         <v>270290</v>
@@ -25065,7 +25081,7 @@
         <v>129900</v>
       </c>
       <c r="K487" t="n">
-        <v>12.32876712328767</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L487" t="n">
         <v>270360</v>
@@ -25116,7 +25132,7 @@
         <v>129900</v>
       </c>
       <c r="K488" t="n">
-        <v>7.246376811594203</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>270430</v>
@@ -25167,7 +25183,7 @@
         <v>130100</v>
       </c>
       <c r="K489" t="n">
-        <v>14.70588235294118</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L489" t="n">
         <v>270450</v>
@@ -25218,7 +25234,7 @@
         <v>130300</v>
       </c>
       <c r="K490" t="n">
-        <v>-3.333333333333333</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L490" t="n">
         <v>270410</v>
@@ -25269,7 +25285,7 @@
         <v>130500</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L491" t="n">
         <v>270320</v>
@@ -25320,7 +25336,7 @@
         <v>130800</v>
       </c>
       <c r="K492" t="n">
-        <v>1.694915254237288</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L492" t="n">
         <v>270310</v>
@@ -25371,7 +25387,7 @@
         <v>130800</v>
       </c>
       <c r="K493" t="n">
-        <v>13.20754716981132</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L493" t="n">
         <v>270290</v>
@@ -25422,7 +25438,7 @@
         <v>130900</v>
       </c>
       <c r="K494" t="n">
-        <v>11.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>270330</v>
@@ -25524,7 +25540,7 @@
         <v>131400</v>
       </c>
       <c r="K496" t="n">
-        <v>5.660377358490567</v>
+        <v>-20</v>
       </c>
       <c r="L496" t="n">
         <v>270280</v>
@@ -25575,7 +25591,7 @@
         <v>131700</v>
       </c>
       <c r="K497" t="n">
-        <v>1.818181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>270220</v>
@@ -25626,7 +25642,7 @@
         <v>131900</v>
       </c>
       <c r="K498" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>270180</v>
@@ -25677,7 +25693,7 @@
         <v>132100</v>
       </c>
       <c r="K499" t="n">
-        <v>-11.53846153846154</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L499" t="n">
         <v>270100</v>
@@ -25728,7 +25744,7 @@
         <v>132400</v>
       </c>
       <c r="K500" t="n">
-        <v>-13.72549019607843</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L500" t="n">
         <v>270070</v>
@@ -25779,7 +25795,7 @@
         <v>132500</v>
       </c>
       <c r="K501" t="n">
-        <v>-22.44897959183674</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L501" t="n">
         <v>270050</v>
@@ -25830,7 +25846,7 @@
         <v>132500</v>
       </c>
       <c r="K502" t="n">
-        <v>-13.63636363636363</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L502" t="n">
         <v>270000</v>
@@ -25881,7 +25897,7 @@
         <v>132800</v>
       </c>
       <c r="K503" t="n">
-        <v>-8.695652173913043</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L503" t="n">
         <v>269980</v>
@@ -25932,7 +25948,7 @@
         <v>132800</v>
       </c>
       <c r="K504" t="n">
-        <v>2.439024390243902</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L504" t="n">
         <v>269950</v>
@@ -25983,7 +25999,7 @@
         <v>132900</v>
       </c>
       <c r="K505" t="n">
-        <v>-10.52631578947368</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L505" t="n">
         <v>269960</v>
@@ -26034,7 +26050,7 @@
         <v>133000</v>
       </c>
       <c r="K506" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L506" t="n">
         <v>269960</v>
@@ -26085,7 +26101,7 @@
         <v>133600</v>
       </c>
       <c r="K507" t="n">
-        <v>8.108108108108109</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L507" t="n">
         <v>270050</v>
@@ -26136,7 +26152,7 @@
         <v>133800</v>
       </c>
       <c r="K508" t="n">
-        <v>12.82051282051282</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L508" t="n">
         <v>270140</v>
@@ -26187,7 +26203,7 @@
         <v>134000</v>
       </c>
       <c r="K509" t="n">
-        <v>12.82051282051282</v>
+        <v>62.5</v>
       </c>
       <c r="L509" t="n">
         <v>270270</v>
@@ -26238,7 +26254,7 @@
         <v>134000</v>
       </c>
       <c r="K510" t="n">
-        <v>18.91891891891892</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>270370</v>
@@ -26289,7 +26305,7 @@
         <v>134100</v>
       </c>
       <c r="K511" t="n">
-        <v>27.77777777777778</v>
+        <v>75</v>
       </c>
       <c r="L511" t="n">
         <v>270490</v>
@@ -26340,7 +26356,7 @@
         <v>134200</v>
       </c>
       <c r="K512" t="n">
-        <v>17.64705882352941</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L512" t="n">
         <v>270600</v>
@@ -26391,7 +26407,7 @@
         <v>134400</v>
       </c>
       <c r="K513" t="n">
-        <v>11.11111111111111</v>
+        <v>37.5</v>
       </c>
       <c r="L513" t="n">
         <v>270660</v>
@@ -26442,7 +26458,7 @@
         <v>134600</v>
       </c>
       <c r="K514" t="n">
-        <v>13.51351351351351</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L514" t="n">
         <v>270740</v>
@@ -26493,7 +26509,7 @@
         <v>134700</v>
       </c>
       <c r="K515" t="n">
-        <v>33.33333333333333</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L515" t="n">
         <v>270840</v>
@@ -26544,7 +26560,7 @@
         <v>135000</v>
       </c>
       <c r="K516" t="n">
-        <v>38.88888888888889</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L516" t="n">
         <v>270980</v>
@@ -26595,7 +26611,7 @@
         <v>135100</v>
       </c>
       <c r="K517" t="n">
-        <v>52.94117647058824</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L517" t="n">
         <v>271070</v>
@@ -26646,7 +26662,7 @@
         <v>135400</v>
       </c>
       <c r="K518" t="n">
-        <v>37.14285714285715</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L518" t="n">
         <v>271110</v>
@@ -26697,7 +26713,7 @@
         <v>135900</v>
       </c>
       <c r="K519" t="n">
-        <v>52.63157894736842</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L519" t="n">
         <v>271180</v>
@@ -26748,7 +26764,7 @@
         <v>136100</v>
       </c>
       <c r="K520" t="n">
-        <v>40.54054054054054</v>
+        <v>20</v>
       </c>
       <c r="L520" t="n">
         <v>271230</v>
@@ -26799,7 +26815,7 @@
         <v>136100</v>
       </c>
       <c r="K521" t="n">
-        <v>44.44444444444444</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L521" t="n">
         <v>271270</v>
@@ -26850,7 +26866,7 @@
         <v>136300</v>
       </c>
       <c r="K522" t="n">
-        <v>36.84210526315789</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L522" t="n">
         <v>271300</v>
@@ -26901,7 +26917,7 @@
         <v>136300</v>
       </c>
       <c r="K523" t="n">
-        <v>31.42857142857143</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L523" t="n">
         <v>271350</v>
@@ -26952,7 +26968,7 @@
         <v>136500</v>
       </c>
       <c r="K524" t="n">
-        <v>35.13513513513514</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L524" t="n">
         <v>271400</v>
@@ -27003,7 +27019,7 @@
         <v>136500</v>
       </c>
       <c r="K525" t="n">
-        <v>38.88888888888889</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L525" t="n">
         <v>271440</v>
@@ -27054,7 +27070,7 @@
         <v>136500</v>
       </c>
       <c r="K526" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>271450</v>
@@ -27105,7 +27121,7 @@
         <v>136700</v>
       </c>
       <c r="K527" t="n">
-        <v>35.48387096774194</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L527" t="n">
         <v>271470</v>
@@ -27156,7 +27172,7 @@
         <v>136700</v>
       </c>
       <c r="K528" t="n">
-        <v>31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>271520</v>
@@ -27207,7 +27223,7 @@
         <v>136700</v>
       </c>
       <c r="K529" t="n">
-        <v>25.92592592592592</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>271520</v>
@@ -27258,7 +27274,7 @@
         <v>136900</v>
       </c>
       <c r="K530" t="n">
-        <v>31.03448275862069</v>
+        <v>50</v>
       </c>
       <c r="L530" t="n">
         <v>271560</v>
@@ -27309,7 +27325,7 @@
         <v>137000</v>
       </c>
       <c r="K531" t="n">
-        <v>31.03448275862069</v>
+        <v>100</v>
       </c>
       <c r="L531" t="n">
         <v>271610</v>
@@ -27360,7 +27376,7 @@
         <v>137100</v>
       </c>
       <c r="K532" t="n">
-        <v>37.93103448275862</v>
+        <v>100</v>
       </c>
       <c r="L532" t="n">
         <v>271690</v>
@@ -27411,7 +27427,7 @@
         <v>137300</v>
       </c>
       <c r="K533" t="n">
-        <v>51.72413793103448</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>271790</v>
@@ -27462,7 +27478,7 @@
         <v>137400</v>
       </c>
       <c r="K534" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>271880</v>
@@ -27513,7 +27529,7 @@
         <v>137700</v>
       </c>
       <c r="K535" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L535" t="n">
         <v>271940</v>
@@ -27564,7 +27580,7 @@
         <v>137700</v>
       </c>
       <c r="K536" t="n">
-        <v>25.92592592592592</v>
+        <v>40</v>
       </c>
       <c r="L536" t="n">
         <v>272000</v>
@@ -27615,7 +27631,7 @@
         <v>137700</v>
       </c>
       <c r="K537" t="n">
-        <v>23.07692307692308</v>
+        <v>40</v>
       </c>
       <c r="L537" t="n">
         <v>272040</v>
@@ -27666,7 +27682,7 @@
         <v>138000</v>
       </c>
       <c r="K538" t="n">
-        <v>46.15384615384615</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L538" t="n">
         <v>272110</v>
@@ -27717,7 +27733,7 @@
         <v>138200</v>
       </c>
       <c r="K539" t="n">
-        <v>39.1304347826087</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L539" t="n">
         <v>272200</v>
@@ -27768,7 +27784,7 @@
         <v>138700</v>
       </c>
       <c r="K540" t="n">
-        <v>23.07692307692308</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L540" t="n">
         <v>272220</v>
@@ -27819,7 +27835,7 @@
         <v>139100</v>
       </c>
       <c r="K541" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L541" t="n">
         <v>272270</v>
@@ -27870,7 +27886,7 @@
         <v>139100</v>
       </c>
       <c r="K542" t="n">
-        <v>42.85714285714285</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L542" t="n">
         <v>272310</v>
@@ -27921,7 +27937,7 @@
         <v>139800</v>
       </c>
       <c r="K543" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L543" t="n">
         <v>272260</v>
@@ -27972,7 +27988,7 @@
         <v>140000</v>
       </c>
       <c r="K544" t="n">
-        <v>14.28571428571428</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L544" t="n">
         <v>272220</v>
@@ -28023,7 +28039,7 @@
         <v>140300</v>
       </c>
       <c r="K545" t="n">
-        <v>5.263157894736842</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L545" t="n">
         <v>272180</v>
@@ -28074,7 +28090,7 @@
         <v>140700</v>
       </c>
       <c r="K546" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>272180</v>
@@ -28125,7 +28141,7 @@
         <v>141000</v>
       </c>
       <c r="K547" t="n">
-        <v>16.27906976744186</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>272210</v>
@@ -28176,7 +28192,7 @@
         <v>141100</v>
       </c>
       <c r="K548" t="n">
-        <v>13.63636363636363</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L548" t="n">
         <v>272200</v>
@@ -28227,7 +28243,7 @@
         <v>141200</v>
       </c>
       <c r="K549" t="n">
-        <v>11.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="L549" t="n">
         <v>272160</v>
@@ -28278,7 +28294,7 @@
         <v>141300</v>
       </c>
       <c r="K550" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L550" t="n">
         <v>272180</v>
@@ -28329,7 +28345,7 @@
         <v>141600</v>
       </c>
       <c r="K551" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L551" t="n">
         <v>272130</v>
@@ -28380,7 +28396,7 @@
         <v>141800</v>
       </c>
       <c r="K552" t="n">
-        <v>2.127659574468085</v>
+        <v>20</v>
       </c>
       <c r="L552" t="n">
         <v>272100</v>
@@ -28431,7 +28447,7 @@
         <v>141800</v>
       </c>
       <c r="K553" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L553" t="n">
         <v>272140</v>
@@ -28482,7 +28498,7 @@
         <v>141900</v>
       </c>
       <c r="K554" t="n">
-        <v>-2.222222222222222</v>
+        <v>37.5</v>
       </c>
       <c r="L554" t="n">
         <v>272170</v>
@@ -28533,7 +28549,7 @@
         <v>142000</v>
       </c>
       <c r="K555" t="n">
-        <v>2.325581395348837</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L555" t="n">
         <v>272220</v>
@@ -28584,7 +28600,7 @@
         <v>142500</v>
       </c>
       <c r="K556" t="n">
-        <v>-8.333333333333332</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L556" t="n">
         <v>272180</v>
@@ -28635,7 +28651,7 @@
         <v>142700</v>
       </c>
       <c r="K557" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="L557" t="n">
         <v>272130</v>
@@ -28686,7 +28702,7 @@
         <v>143200</v>
       </c>
       <c r="K558" t="n">
-        <v>-19.23076923076923</v>
+        <v>-40</v>
       </c>
       <c r="L558" t="n">
         <v>272040</v>
@@ -28737,7 +28753,7 @@
         <v>143200</v>
       </c>
       <c r="K559" t="n">
-        <v>-24</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L559" t="n">
         <v>271960</v>
@@ -28788,7 +28804,7 @@
         <v>143400</v>
       </c>
       <c r="K560" t="n">
-        <v>-10.63829787234043</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L560" t="n">
         <v>271890</v>
@@ -28839,7 +28855,7 @@
         <v>143400</v>
       </c>
       <c r="K561" t="n">
-        <v>-20.93023255813954</v>
+        <v>-37.5</v>
       </c>
       <c r="L561" t="n">
         <v>271850</v>
@@ -28890,7 +28906,7 @@
         <v>143400</v>
       </c>
       <c r="K562" t="n">
-        <v>-20.93023255813954</v>
+        <v>-37.5</v>
       </c>
       <c r="L562" t="n">
         <v>271790</v>
@@ -28941,7 +28957,7 @@
         <v>143400</v>
       </c>
       <c r="K563" t="n">
-        <v>-5.555555555555555</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L563" t="n">
         <v>271730</v>
@@ -28992,7 +29008,7 @@
         <v>143900</v>
       </c>
       <c r="K564" t="n">
-        <v>-23.07692307692308</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L564" t="n">
         <v>271610</v>
@@ -29043,7 +29059,7 @@
         <v>144000</v>
       </c>
       <c r="K565" t="n">
-        <v>-18.91891891891892</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L565" t="n">
         <v>271490</v>
@@ -29094,7 +29110,7 @@
         <v>144300</v>
       </c>
       <c r="K566" t="n">
-        <v>-22.22222222222222</v>
+        <v>-37.5</v>
       </c>
       <c r="L566" t="n">
         <v>271450</v>
@@ -29145,7 +29161,7 @@
         <v>144600</v>
       </c>
       <c r="K567" t="n">
-        <v>-38.88888888888889</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L567" t="n">
         <v>271360</v>
@@ -29196,7 +29212,7 @@
         <v>144600</v>
       </c>
       <c r="K568" t="n">
-        <v>-37.14285714285715</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L568" t="n">
         <v>271320</v>
@@ -29247,7 +29263,7 @@
         <v>144600</v>
       </c>
       <c r="K569" t="n">
-        <v>-35.29411764705883</v>
+        <v>-50</v>
       </c>
       <c r="L569" t="n">
         <v>271280</v>
@@ -29298,7 +29314,7 @@
         <v>144600</v>
       </c>
       <c r="K570" t="n">
-        <v>-39.39393939393939</v>
+        <v>-50</v>
       </c>
       <c r="L570" t="n">
         <v>271220</v>
@@ -29349,7 +29365,7 @@
         <v>144800</v>
       </c>
       <c r="K571" t="n">
-        <v>-37.5</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L571" t="n">
         <v>271140</v>
@@ -29400,7 +29416,7 @@
         <v>144900</v>
       </c>
       <c r="K572" t="n">
-        <v>-41.93548387096774</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L572" t="n">
         <v>271070</v>
@@ -29451,7 +29467,7 @@
         <v>144900</v>
       </c>
       <c r="K573" t="n">
-        <v>-41.93548387096774</v>
+        <v>-20</v>
       </c>
       <c r="L573" t="n">
         <v>271000</v>
@@ -29502,7 +29518,7 @@
         <v>145200</v>
       </c>
       <c r="K574" t="n">
-        <v>-33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L574" t="n">
         <v>271010</v>
@@ -29553,7 +29569,7 @@
         <v>146000</v>
       </c>
       <c r="K575" t="n">
-        <v>-5</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L575" t="n">
         <v>271110</v>
@@ -29604,7 +29620,7 @@
         <v>146600</v>
       </c>
       <c r="K576" t="n">
-        <v>21.95121951219512</v>
+        <v>80</v>
       </c>
       <c r="L576" t="n">
         <v>271240</v>
@@ -29655,7 +29671,7 @@
         <v>147500</v>
       </c>
       <c r="K577" t="n">
-        <v>33.33333333333333</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L577" t="n">
         <v>271490</v>
@@ -29706,7 +29722,7 @@
         <v>148000</v>
       </c>
       <c r="K578" t="n">
-        <v>54.16666666666666</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L578" t="n">
         <v>271790</v>
@@ -29757,7 +29773,7 @@
         <v>148700</v>
       </c>
       <c r="K579" t="n">
-        <v>60</v>
+        <v>90.2439024390244</v>
       </c>
       <c r="L579" t="n">
         <v>272160</v>
@@ -29808,7 +29824,7 @@
         <v>149200</v>
       </c>
       <c r="K580" t="n">
-        <v>44.82758620689656</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="L580" t="n">
         <v>272480</v>
@@ -29859,7 +29875,7 @@
         <v>149900</v>
       </c>
       <c r="K581" t="n">
-        <v>29.23076923076923</v>
+        <v>52</v>
       </c>
       <c r="L581" t="n">
         <v>272750</v>
@@ -29910,7 +29926,7 @@
         <v>150100</v>
       </c>
       <c r="K582" t="n">
-        <v>25.37313432835821</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L582" t="n">
         <v>272990</v>
@@ -29961,7 +29977,7 @@
         <v>150500</v>
       </c>
       <c r="K583" t="n">
-        <v>29.57746478873239</v>
+        <v>47.16981132075472</v>
       </c>
       <c r="L583" t="n">
         <v>273270</v>
@@ -30012,7 +30028,7 @@
         <v>150700</v>
       </c>
       <c r="K584" t="n">
-        <v>35.29411764705883</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L584" t="n">
         <v>273500</v>
@@ -30063,7 +30079,7 @@
         <v>151000</v>
       </c>
       <c r="K585" t="n">
-        <v>40</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L585" t="n">
         <v>273680</v>
@@ -30114,7 +30130,7 @@
         <v>151300</v>
       </c>
       <c r="K586" t="n">
-        <v>31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>273770</v>
@@ -30165,7 +30181,7 @@
         <v>151400</v>
       </c>
       <c r="K587" t="n">
-        <v>35.29411764705883</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L587" t="n">
         <v>273760</v>
@@ -30216,7 +30232,7 @@
         <v>151500</v>
       </c>
       <c r="K588" t="n">
-        <v>33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L588" t="n">
         <v>273690</v>
@@ -30267,7 +30283,7 @@
         <v>151800</v>
       </c>
       <c r="K589" t="n">
-        <v>27.77777777777778</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L589" t="n">
         <v>273520</v>
@@ -30318,7 +30334,7 @@
         <v>152200</v>
       </c>
       <c r="K590" t="n">
-        <v>31.57894736842105</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L590" t="n">
         <v>273440</v>
@@ -30369,7 +30385,7 @@
         <v>152300</v>
       </c>
       <c r="K591" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>273420</v>
@@ -30420,7 +30436,7 @@
         <v>152900</v>
       </c>
       <c r="K592" t="n">
-        <v>37.5</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L592" t="n">
         <v>273480</v>
@@ -30471,7 +30487,7 @@
         <v>153300</v>
       </c>
       <c r="K593" t="n">
-        <v>30.95238095238095</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>273460</v>
@@ -30522,7 +30538,7 @@
         <v>153300</v>
       </c>
       <c r="K594" t="n">
-        <v>28.39506172839506</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L594" t="n">
         <v>273460</v>
@@ -30573,7 +30589,7 @@
         <v>153700</v>
       </c>
       <c r="K595" t="n">
-        <v>24.67532467532467</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L595" t="n">
         <v>273470</v>
@@ -30624,7 +30640,7 @@
         <v>153800</v>
       </c>
       <c r="K596" t="n">
-        <v>19.44444444444445</v>
+        <v>25</v>
       </c>
       <c r="L596" t="n">
         <v>273520</v>
@@ -30675,7 +30691,7 @@
         <v>153900</v>
       </c>
       <c r="K597" t="n">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="L597" t="n">
         <v>273570</v>
@@ -30726,7 +30742,7 @@
         <v>154300</v>
       </c>
       <c r="K598" t="n">
-        <v>4.761904761904762</v>
+        <v>52</v>
       </c>
       <c r="L598" t="n">
         <v>273670</v>
@@ -30777,7 +30793,7 @@
         <v>154600</v>
       </c>
       <c r="K599" t="n">
-        <v>-11.86440677966102</v>
+        <v>25</v>
       </c>
       <c r="L599" t="n">
         <v>273770</v>
@@ -30828,7 +30844,7 @@
         <v>154800</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L600" t="n">
         <v>273850</v>
@@ -30879,7 +30895,7 @@
         <v>155000</v>
       </c>
       <c r="K601" t="n">
-        <v>9.803921568627452</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L601" t="n">
         <v>273920</v>
@@ -30930,7 +30946,7 @@
         <v>155100</v>
       </c>
       <c r="K602" t="n">
-        <v>12</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L602" t="n">
         <v>273920</v>
@@ -30981,7 +30997,7 @@
         <v>155500</v>
       </c>
       <c r="K603" t="n">
-        <v>12</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L603" t="n">
         <v>274000</v>
@@ -31032,7 +31048,7 @@
         <v>156200</v>
       </c>
       <c r="K604" t="n">
-        <v>27.27272727272727</v>
+        <v>44</v>
       </c>
       <c r="L604" t="n">
         <v>274150</v>
@@ -31083,7 +31099,7 @@
         <v>156400</v>
       </c>
       <c r="K605" t="n">
-        <v>18.51851851851852</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L605" t="n">
         <v>274240</v>
@@ -31134,7 +31150,7 @@
         <v>156900</v>
       </c>
       <c r="K606" t="n">
-        <v>32.14285714285715</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L606" t="n">
         <v>274370</v>
@@ -31185,7 +31201,7 @@
         <v>157600</v>
       </c>
       <c r="K607" t="n">
-        <v>41.93548387096774</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L607" t="n">
         <v>274580</v>
@@ -31236,7 +31252,7 @@
         <v>157800</v>
       </c>
       <c r="K608" t="n">
-        <v>46.03174603174603</v>
+        <v>68.75</v>
       </c>
       <c r="L608" t="n">
         <v>274770</v>
@@ -31287,7 +31303,7 @@
         <v>158500</v>
       </c>
       <c r="K609" t="n">
-        <v>37.3134328358209</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L609" t="n">
         <v>274920</v>
@@ -31338,7 +31354,7 @@
         <v>159200</v>
       </c>
       <c r="K610" t="n">
-        <v>20</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L610" t="n">
         <v>274980</v>
@@ -31389,7 +31405,7 @@
         <v>160200</v>
       </c>
       <c r="K611" t="n">
-        <v>31.64556962025317</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L611" t="n">
         <v>275160</v>
@@ -31440,7 +31456,7 @@
         <v>160400</v>
       </c>
       <c r="K612" t="n">
-        <v>22.66666666666666</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L612" t="n">
         <v>275330</v>
@@ -31491,7 +31507,7 @@
         <v>160600</v>
       </c>
       <c r="K613" t="n">
-        <v>26.02739726027397</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L613" t="n">
         <v>275440</v>
@@ -31542,7 +31558,7 @@
         <v>161100</v>
       </c>
       <c r="K614" t="n">
-        <v>30.76923076923077</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L614" t="n">
         <v>275530</v>
@@ -31593,7 +31609,7 @@
         <v>161200</v>
       </c>
       <c r="K615" t="n">
-        <v>25.33333333333334</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L615" t="n">
         <v>275630</v>
@@ -31644,7 +31660,7 @@
         <v>161400</v>
       </c>
       <c r="K616" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>275700</v>
@@ -31695,7 +31711,7 @@
         <v>161600</v>
       </c>
       <c r="K617" t="n">
-        <v>24.67532467532467</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L617" t="n">
         <v>275680</v>
@@ -31746,7 +31762,7 @@
         <v>161900</v>
       </c>
       <c r="K618" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L618" t="n">
         <v>275610</v>
@@ -31797,7 +31813,7 @@
         <v>162000</v>
       </c>
       <c r="K619" t="n">
-        <v>21.62162162162162</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L619" t="n">
         <v>275620</v>
@@ -31848,7 +31864,7 @@
         <v>162100</v>
       </c>
       <c r="K620" t="n">
-        <v>20.54794520547945</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L620" t="n">
         <v>275710</v>
@@ -31899,7 +31915,7 @@
         <v>162500</v>
       </c>
       <c r="K621" t="n">
-        <v>28</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L621" t="n">
         <v>275740</v>
@@ -31950,7 +31966,7 @@
         <v>162900</v>
       </c>
       <c r="K622" t="n">
-        <v>33.33333333333333</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L622" t="n">
         <v>275830</v>
@@ -32001,7 +32017,7 @@
         <v>163300</v>
       </c>
       <c r="K623" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L623" t="n">
         <v>275900</v>
@@ -32052,7 +32068,7 @@
         <v>163300</v>
       </c>
       <c r="K624" t="n">
-        <v>15.49295774647887</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L624" t="n">
         <v>275920</v>
@@ -32103,7 +32119,7 @@
         <v>163300</v>
       </c>
       <c r="K625" t="n">
-        <v>18.84057971014493</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L625" t="n">
         <v>275950</v>
@@ -32154,7 +32170,7 @@
         <v>163900</v>
       </c>
       <c r="K626" t="n">
-        <v>20</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L626" t="n">
         <v>276020</v>
@@ -32205,7 +32221,7 @@
         <v>164800</v>
       </c>
       <c r="K627" t="n">
-        <v>-2.777777777777778</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L627" t="n">
         <v>276020</v>
@@ -32256,7 +32272,7 @@
         <v>165100</v>
       </c>
       <c r="K628" t="n">
-        <v>-9.58904109589041</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L628" t="n">
         <v>276020</v>
@@ -32307,7 +32323,7 @@
         <v>165300</v>
       </c>
       <c r="K629" t="n">
-        <v>2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>276030</v>
@@ -32358,7 +32374,7 @@
         <v>165600</v>
       </c>
       <c r="K630" t="n">
-        <v>18.75</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L630" t="n">
         <v>276060</v>
@@ -32409,7 +32425,7 @@
         <v>165800</v>
       </c>
       <c r="K631" t="n">
-        <v>7.142857142857142</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L631" t="n">
         <v>276070</v>
@@ -32460,7 +32476,7 @@
         <v>166000</v>
       </c>
       <c r="K632" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L632" t="n">
         <v>276060</v>
@@ -32511,7 +32527,7 @@
         <v>166600</v>
       </c>
       <c r="K633" t="n">
-        <v>6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L633" t="n">
         <v>276030</v>
@@ -32562,7 +32578,7 @@
         <v>166600</v>
       </c>
       <c r="K634" t="n">
-        <v>-1.818181818181818</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L634" t="n">
         <v>276000</v>
@@ -32613,7 +32629,7 @@
         <v>166800</v>
       </c>
       <c r="K635" t="n">
-        <v>3.571428571428571</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L635" t="n">
         <v>275990</v>
@@ -32664,7 +32680,7 @@
         <v>167000</v>
       </c>
       <c r="K636" t="n">
-        <v>-3.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>275900</v>
@@ -32715,7 +32731,7 @@
         <v>167200</v>
       </c>
       <c r="K637" t="n">
-        <v>3.571428571428571</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L637" t="n">
         <v>275920</v>
@@ -32766,7 +32782,7 @@
         <v>167200</v>
       </c>
       <c r="K638" t="n">
-        <v>9.433962264150944</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L638" t="n">
         <v>275970</v>
@@ -32817,7 +32833,7 @@
         <v>167200</v>
       </c>
       <c r="K639" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>276000</v>
@@ -32868,7 +32884,7 @@
         <v>167300</v>
       </c>
       <c r="K640" t="n">
-        <v>7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L640" t="n">
         <v>276010</v>
@@ -32919,7 +32935,7 @@
         <v>167500</v>
       </c>
       <c r="K641" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L641" t="n">
         <v>275980</v>
@@ -32970,7 +32986,7 @@
         <v>167600</v>
       </c>
       <c r="K642" t="n">
-        <v>-10.63829787234043</v>
+        <v>20</v>
       </c>
       <c r="L642" t="n">
         <v>275940</v>
@@ -33021,7 +33037,7 @@
         <v>167900</v>
       </c>
       <c r="K643" t="n">
-        <v>-8.695652173913043</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L643" t="n">
         <v>275930</v>
@@ -33072,7 +33088,7 @@
         <v>168000</v>
       </c>
       <c r="K644" t="n">
-        <v>-10.63829787234043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L644" t="n">
         <v>275910</v>
@@ -33123,7 +33139,7 @@
         <v>168400</v>
       </c>
       <c r="K645" t="n">
-        <v>-1.96078431372549</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L645" t="n">
         <v>275910</v>
@@ -33174,7 +33190,7 @@
         <v>168400</v>
       </c>
       <c r="K646" t="n">
-        <v>-15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L646" t="n">
         <v>275930</v>
@@ -33225,7 +33241,7 @@
         <v>168400</v>
       </c>
       <c r="K647" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>275930</v>
@@ -33276,7 +33292,7 @@
         <v>168400</v>
       </c>
       <c r="K648" t="n">
-        <v>15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>275930</v>
@@ -33327,7 +33343,7 @@
         <v>168500</v>
       </c>
       <c r="K649" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>275940</v>
@@ -33378,7 +33394,7 @@
         <v>168600</v>
       </c>
       <c r="K650" t="n">
-        <v>6.666666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L650" t="n">
         <v>275950</v>
@@ -33429,7 +33445,7 @@
         <v>168800</v>
       </c>
       <c r="K651" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L651" t="n">
         <v>276000</v>
@@ -33480,7 +33496,7 @@
         <v>168900</v>
       </c>
       <c r="K652" t="n">
-        <v>3.448275862068965</v>
+        <v>80</v>
       </c>
       <c r="L652" t="n">
         <v>276050</v>
@@ -33531,7 +33547,7 @@
         <v>169100</v>
       </c>
       <c r="K653" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L653" t="n">
         <v>276150</v>
@@ -33582,7 +33598,7 @@
         <v>169100</v>
       </c>
       <c r="K654" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L654" t="n">
         <v>276260</v>
@@ -33633,7 +33649,7 @@
         <v>169200</v>
       </c>
       <c r="K655" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L655" t="n">
         <v>276320</v>
@@ -33684,7 +33700,7 @@
         <v>169300</v>
       </c>
       <c r="K656" t="n">
-        <v>39.1304347826087</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L656" t="n">
         <v>276390</v>
@@ -33735,7 +33751,7 @@
         <v>169300</v>
       </c>
       <c r="K657" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L657" t="n">
         <v>276460</v>
@@ -33786,7 +33802,7 @@
         <v>169300</v>
       </c>
       <c r="K658" t="n">
-        <v>33.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L658" t="n">
         <v>276530</v>
@@ -33837,7 +33853,7 @@
         <v>169400</v>
       </c>
       <c r="K659" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L659" t="n">
         <v>276580</v>
@@ -33888,7 +33904,7 @@
         <v>169800</v>
       </c>
       <c r="K660" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="L660" t="n">
         <v>276580</v>
@@ -33939,7 +33955,7 @@
         <v>170300</v>
       </c>
       <c r="K661" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L661" t="n">
         <v>276610</v>
@@ -33990,7 +34006,7 @@
         <v>170300</v>
       </c>
       <c r="K662" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>276630</v>
@@ -34041,7 +34057,7 @@
         <v>170700</v>
       </c>
       <c r="K663" t="n">
-        <v>21.42857142857143</v>
+        <v>-25</v>
       </c>
       <c r="L663" t="n">
         <v>276590</v>
@@ -34092,7 +34108,7 @@
         <v>170700</v>
       </c>
       <c r="K664" t="n">
-        <v>25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L664" t="n">
         <v>276550</v>
@@ -34143,7 +34159,7 @@
         <v>171000</v>
       </c>
       <c r="K665" t="n">
-        <v>23.07692307692308</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L665" t="n">
         <v>276550</v>
@@ -34194,7 +34210,7 @@
         <v>171100</v>
       </c>
       <c r="K666" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L666" t="n">
         <v>276550</v>
@@ -34245,7 +34261,7 @@
         <v>171500</v>
       </c>
       <c r="K667" t="n">
-        <v>9.67741935483871</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L667" t="n">
         <v>276510</v>
@@ -34296,7 +34312,7 @@
         <v>171600</v>
       </c>
       <c r="K668" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L668" t="n">
         <v>276480</v>
@@ -34347,7 +34363,7 @@
         <v>171600</v>
       </c>
       <c r="K669" t="n">
-        <v>9.67741935483871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L669" t="n">
         <v>276460</v>
@@ -34398,7 +34414,7 @@
         <v>171700</v>
       </c>
       <c r="K670" t="n">
-        <v>3.225806451612903</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L670" t="n">
         <v>276470</v>
@@ -34449,7 +34465,7 @@
         <v>171800</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L671" t="n">
         <v>276440</v>
@@ -34500,7 +34516,7 @@
         <v>172000</v>
       </c>
       <c r="K672" t="n">
-        <v>3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L672" t="n">
         <v>276430</v>
@@ -34551,7 +34567,7 @@
         <v>172100</v>
       </c>
       <c r="K673" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L673" t="n">
         <v>276450</v>
@@ -34602,7 +34618,7 @@
         <v>172500</v>
       </c>
       <c r="K674" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L674" t="n">
         <v>276510</v>
@@ -34653,7 +34669,7 @@
         <v>172700</v>
       </c>
       <c r="K675" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L675" t="n">
         <v>276560</v>
@@ -34704,7 +34720,7 @@
         <v>172700</v>
       </c>
       <c r="K676" t="n">
-        <v>11.76470588235294</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L676" t="n">
         <v>276600</v>
@@ -34755,7 +34771,7 @@
         <v>172800</v>
       </c>
       <c r="K677" t="n">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L677" t="n">
         <v>276690</v>
@@ -34806,7 +34822,7 @@
         <v>173000</v>
       </c>
       <c r="K678" t="n">
-        <v>18.91891891891892</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L678" t="n">
         <v>276790</v>
@@ -34857,7 +34873,7 @@
         <v>173200</v>
       </c>
       <c r="K679" t="n">
-        <v>15.78947368421053</v>
+        <v>60</v>
       </c>
       <c r="L679" t="n">
         <v>276870</v>
@@ -34908,7 +34924,7 @@
         <v>173600</v>
       </c>
       <c r="K680" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L680" t="n">
         <v>277000</v>
@@ -34959,7 +34975,7 @@
         <v>173600</v>
       </c>
       <c r="K681" t="n">
-        <v>27.27272727272727</v>
+        <v>62.5</v>
       </c>
       <c r="L681" t="n">
         <v>277120</v>
@@ -35010,7 +35026,7 @@
         <v>173600</v>
       </c>
       <c r="K682" t="n">
-        <v>27.27272727272727</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L682" t="n">
         <v>277220</v>
@@ -35061,7 +35077,7 @@
         <v>173600</v>
       </c>
       <c r="K683" t="n">
-        <v>44.82758620689656</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L683" t="n">
         <v>277330</v>
@@ -35112,7 +35128,7 @@
         <v>173700</v>
       </c>
       <c r="K684" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L684" t="n">
         <v>277410</v>
@@ -35163,7 +35179,7 @@
         <v>173700</v>
       </c>
       <c r="K685" t="n">
-        <v>40.74074074074074</v>
+        <v>60</v>
       </c>
       <c r="L685" t="n">
         <v>277470</v>
@@ -35214,7 +35230,7 @@
         <v>173700</v>
       </c>
       <c r="K686" t="n">
-        <v>38.46153846153847</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L686" t="n">
         <v>277530</v>
@@ -35265,7 +35281,7 @@
         <v>173800</v>
       </c>
       <c r="K687" t="n">
-        <v>65.21739130434783</v>
+        <v>50</v>
       </c>
       <c r="L687" t="n">
         <v>277590</v>
@@ -35316,7 +35332,7 @@
         <v>173900</v>
       </c>
       <c r="K688" t="n">
-        <v>56.52173913043478</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L688" t="n">
         <v>277620</v>
@@ -35367,7 +35383,7 @@
         <v>174100</v>
       </c>
       <c r="K689" t="n">
-        <v>44</v>
+        <v>-20</v>
       </c>
       <c r="L689" t="n">
         <v>277650</v>
@@ -35418,7 +35434,7 @@
         <v>174800</v>
       </c>
       <c r="K690" t="n">
-        <v>16.12903225806452</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L690" t="n">
         <v>277570</v>
@@ -35469,7 +35485,7 @@
         <v>174800</v>
       </c>
       <c r="K691" t="n">
-        <v>13.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L691" t="n">
         <v>277490</v>
@@ -35520,7 +35536,7 @@
         <v>175400</v>
       </c>
       <c r="K692" t="n">
-        <v>-11.76470588235294</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L692" t="n">
         <v>277350</v>
@@ -35571,7 +35587,7 @@
         <v>175600</v>
       </c>
       <c r="K693" t="n">
-        <v>-14.28571428571428</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L693" t="n">
         <v>277190</v>
@@ -35622,7 +35638,7 @@
         <v>176200</v>
       </c>
       <c r="K694" t="n">
-        <v>-40.54054054054054</v>
+        <v>-92</v>
       </c>
       <c r="L694" t="n">
         <v>276960</v>
@@ -35673,7 +35689,7 @@
         <v>176500</v>
       </c>
       <c r="K695" t="n">
-        <v>-52.63157894736842</v>
+        <v>-92.85714285714286</v>
       </c>
       <c r="L695" t="n">
         <v>276700</v>
@@ -35724,7 +35740,7 @@
         <v>176600</v>
       </c>
       <c r="K696" t="n">
-        <v>-48.71794871794872</v>
+        <v>-92.85714285714286</v>
       </c>
       <c r="L696" t="n">
         <v>276450</v>
@@ -35775,7 +35791,7 @@
         <v>177400</v>
       </c>
       <c r="K697" t="n">
-        <v>-26.08695652173913</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L697" t="n">
         <v>276270</v>
@@ -35826,7 +35842,7 @@
         <v>177800</v>
       </c>
       <c r="K698" t="n">
-        <v>-37.5</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L698" t="n">
         <v>276060</v>
@@ -35877,7 +35893,7 @@
         <v>177800</v>
       </c>
       <c r="K699" t="n">
-        <v>-34.78260869565217</v>
+        <v>-40</v>
       </c>
       <c r="L699" t="n">
         <v>275870</v>
@@ -35928,7 +35944,7 @@
         <v>177800</v>
       </c>
       <c r="K700" t="n">
-        <v>-47.61904761904761</v>
+        <v>-40</v>
       </c>
       <c r="L700" t="n">
         <v>275750</v>
@@ -35979,7 +35995,7 @@
         <v>177800</v>
       </c>
       <c r="K701" t="n">
-        <v>-47.61904761904761</v>
+        <v>-25</v>
       </c>
       <c r="L701" t="n">
         <v>275630</v>
@@ -36030,7 +36046,7 @@
         <v>177900</v>
       </c>
       <c r="K702" t="n">
-        <v>-48.83720930232558</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L702" t="n">
         <v>275560</v>
@@ -36081,7 +36097,7 @@
         <v>178000</v>
       </c>
       <c r="K703" t="n">
-        <v>-45.45454545454545</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L703" t="n">
         <v>275520</v>
@@ -36132,7 +36148,7 @@
         <v>178400</v>
       </c>
       <c r="K704" t="n">
-        <v>-53.19148936170212</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L704" t="n">
         <v>275500</v>
@@ -36183,7 +36199,7 @@
         <v>178600</v>
       </c>
       <c r="K705" t="n">
-        <v>-55.10204081632652</v>
+        <v>-10</v>
       </c>
       <c r="L705" t="n">
         <v>275490</v>
@@ -36234,7 +36250,7 @@
         <v>178600</v>
       </c>
       <c r="K706" t="n">
-        <v>-55.10204081632652</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L706" t="n">
         <v>275470</v>
@@ -36285,7 +36301,7 @@
         <v>178900</v>
       </c>
       <c r="K707" t="n">
-        <v>-49.01960784313725</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L707" t="n">
         <v>275400</v>
@@ -36336,7 +36352,7 @@
         <v>178900</v>
       </c>
       <c r="K708" t="n">
-        <v>-48</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L708" t="n">
         <v>275370</v>
@@ -36387,7 +36403,7 @@
         <v>178900</v>
       </c>
       <c r="K709" t="n">
-        <v>-45.83333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L709" t="n">
         <v>275340</v>
@@ -36438,7 +36454,7 @@
         <v>179100</v>
       </c>
       <c r="K710" t="n">
-        <v>-39.53488372093023</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L710" t="n">
         <v>275290</v>
@@ -36489,7 +36505,7 @@
         <v>179100</v>
       </c>
       <c r="K711" t="n">
-        <v>-39.53488372093023</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L711" t="n">
         <v>275240</v>
@@ -36540,7 +36556,7 @@
         <v>179400</v>
       </c>
       <c r="K712" t="n">
-        <v>-35</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L712" t="n">
         <v>275170</v>
@@ -36591,7 +36607,7 @@
         <v>179700</v>
       </c>
       <c r="K713" t="n">
-        <v>-36.58536585365854</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L713" t="n">
         <v>275060</v>
@@ -36642,7 +36658,7 @@
         <v>179800</v>
       </c>
       <c r="K714" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L714" t="n">
         <v>275000</v>
@@ -36693,7 +36709,7 @@
         <v>180000</v>
       </c>
       <c r="K715" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L715" t="n">
         <v>274940</v>
@@ -36744,7 +36760,7 @@
         <v>180000</v>
       </c>
       <c r="K716" t="n">
-        <v>-23.52941176470588</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L716" t="n">
         <v>274880</v>
@@ -36795,7 +36811,7 @@
         <v>180100</v>
       </c>
       <c r="K717" t="n">
-        <v>-55.55555555555556</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L717" t="n">
         <v>274800</v>
@@ -36846,7 +36862,7 @@
         <v>180500</v>
       </c>
       <c r="K718" t="n">
-        <v>-55.55555555555556</v>
+        <v>-75</v>
       </c>
       <c r="L718" t="n">
         <v>274680</v>
@@ -36897,7 +36913,7 @@
         <v>180600</v>
       </c>
       <c r="K719" t="n">
-        <v>-57.14285714285714</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L719" t="n">
         <v>274550</v>
@@ -36948,7 +36964,7 @@
         <v>180800</v>
       </c>
       <c r="K720" t="n">
-        <v>-60</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L720" t="n">
         <v>274420</v>
@@ -36999,7 +37015,7 @@
         <v>180900</v>
       </c>
       <c r="K721" t="n">
-        <v>-61.29032258064516</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L721" t="n">
         <v>274280</v>
@@ -37050,7 +37066,7 @@
         <v>181200</v>
       </c>
       <c r="K722" t="n">
-        <v>-63.63636363636363</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L722" t="n">
         <v>274140</v>
@@ -37101,7 +37117,7 @@
         <v>181300</v>
       </c>
       <c r="K723" t="n">
-        <v>-69.6969696969697</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L723" t="n">
         <v>274020</v>
@@ -37152,7 +37168,7 @@
         <v>181300</v>
       </c>
       <c r="K724" t="n">
-        <v>-65.51724137931035</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L724" t="n">
         <v>273890</v>
@@ -37203,7 +37219,7 @@
         <v>181500</v>
       </c>
       <c r="K725" t="n">
-        <v>-51.72413793103448</v>
+        <v>-60</v>
       </c>
       <c r="L725" t="n">
         <v>273800</v>
@@ -37254,7 +37270,7 @@
         <v>181500</v>
       </c>
       <c r="K726" t="n">
-        <v>-51.72413793103448</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L726" t="n">
         <v>273710</v>
@@ -37305,7 +37321,7 @@
         <v>181500</v>
       </c>
       <c r="K727" t="n">
-        <v>-69.23076923076923</v>
+        <v>-60</v>
       </c>
       <c r="L727" t="n">
         <v>273610</v>
@@ -37356,7 +37372,7 @@
         <v>181700</v>
       </c>
       <c r="K728" t="n">
-        <v>-57.14285714285714</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L728" t="n">
         <v>273570</v>
@@ -37407,7 +37423,7 @@
         <v>181900</v>
       </c>
       <c r="K729" t="n">
-        <v>-46.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L729" t="n">
         <v>273560</v>
@@ -37458,7 +37474,7 @@
         <v>182100</v>
       </c>
       <c r="K730" t="n">
-        <v>-46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L730" t="n">
         <v>273550</v>
@@ -37509,7 +37525,7 @@
         <v>182200</v>
       </c>
       <c r="K731" t="n">
-        <v>-41.93548387096774</v>
+        <v>40</v>
       </c>
       <c r="L731" t="n">
         <v>273560</v>
@@ -37560,7 +37576,7 @@
         <v>182500</v>
       </c>
       <c r="K732" t="n">
-        <v>-41.93548387096774</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L732" t="n">
         <v>273570</v>
@@ -37611,7 +37627,7 @@
         <v>182600</v>
       </c>
       <c r="K733" t="n">
-        <v>-31.03448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L733" t="n">
         <v>273600</v>
@@ -37662,7 +37678,7 @@
         <v>183400</v>
       </c>
       <c r="K734" t="n">
-        <v>-5.555555555555555</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L734" t="n">
         <v>273710</v>
@@ -37713,7 +37729,7 @@
         <v>183900</v>
       </c>
       <c r="K735" t="n">
-        <v>-12.82051282051282</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L735" t="n">
         <v>273750</v>
@@ -37764,7 +37780,7 @@
         <v>183900</v>
       </c>
       <c r="K736" t="n">
-        <v>-12.82051282051282</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L736" t="n">
         <v>273790</v>
@@ -37815,7 +37831,7 @@
         <v>184100</v>
       </c>
       <c r="K737" t="n">
-        <v>-10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L737" t="n">
         <v>273850</v>
@@ -37866,7 +37882,7 @@
         <v>184400</v>
       </c>
       <c r="K738" t="n">
-        <v>-7.692307692307693</v>
+        <v>-4</v>
       </c>
       <c r="L738" t="n">
         <v>273860</v>
@@ -37917,7 +37933,7 @@
         <v>184400</v>
       </c>
       <c r="K739" t="n">
-        <v>-5.263157894736842</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L739" t="n">
         <v>273850</v>
@@ -37968,7 +37984,7 @@
         <v>184600</v>
       </c>
       <c r="K740" t="n">
-        <v>5.263157894736842</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L740" t="n">
         <v>273880</v>
@@ -38019,7 +38035,7 @@
         <v>184600</v>
       </c>
       <c r="K741" t="n">
-        <v>8.108108108108109</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L741" t="n">
         <v>273900</v>
@@ -38070,7 +38086,7 @@
         <v>185200</v>
       </c>
       <c r="K742" t="n">
-        <v>30</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L742" t="n">
         <v>274010</v>
@@ -38121,7 +38137,7 @@
         <v>185600</v>
       </c>
       <c r="K743" t="n">
-        <v>39.53488372093023</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L743" t="n">
         <v>274150</v>
@@ -38172,7 +38188,7 @@
         <v>186200</v>
       </c>
       <c r="K744" t="n">
-        <v>46.93877551020408</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L744" t="n">
         <v>274270</v>
@@ -38223,7 +38239,7 @@
         <v>186300</v>
       </c>
       <c r="K745" t="n">
-        <v>45.83333333333333</v>
+        <v>75</v>
       </c>
       <c r="L745" t="n">
         <v>274450</v>
@@ -38274,7 +38290,7 @@
         <v>187100</v>
       </c>
       <c r="K746" t="n">
-        <v>25</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L746" t="n">
         <v>274550</v>
@@ -38325,7 +38341,7 @@
         <v>187300</v>
       </c>
       <c r="K747" t="n">
-        <v>20.68965517241379</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L747" t="n">
         <v>274610</v>
@@ -38376,7 +38392,7 @@
         <v>187600</v>
       </c>
       <c r="K748" t="n">
-        <v>11.86440677966102</v>
+        <v>18.75</v>
       </c>
       <c r="L748" t="n">
         <v>274670</v>
@@ -38427,7 +38443,7 @@
         <v>188300</v>
       </c>
       <c r="K749" t="n">
-        <v>18.75</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L749" t="n">
         <v>274800</v>
@@ -38478,7 +38494,7 @@
         <v>188600</v>
       </c>
       <c r="K750" t="n">
-        <v>16.92307692307692</v>
+        <v>20</v>
       </c>
       <c r="L750" t="n">
         <v>274880</v>
@@ -38529,7 +38545,7 @@
         <v>188600</v>
       </c>
       <c r="K751" t="n">
-        <v>15.625</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L751" t="n">
         <v>274960</v>
@@ -38580,7 +38596,7 @@
         <v>188800</v>
       </c>
       <c r="K752" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L752" t="n">
         <v>275000</v>
@@ -38631,7 +38647,7 @@
         <v>189100</v>
       </c>
       <c r="K753" t="n">
-        <v>26.15384615384616</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L753" t="n">
         <v>275030</v>
@@ -38682,7 +38698,7 @@
         <v>189100</v>
       </c>
       <c r="K754" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L754" t="n">
         <v>275000</v>
@@ -38733,7 +38749,7 @@
         <v>189400</v>
       </c>
       <c r="K755" t="n">
-        <v>30.90909090909091</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L755" t="n">
         <v>274990</v>
@@ -38784,7 +38800,7 @@
         <v>189800</v>
       </c>
       <c r="K756" t="n">
-        <v>35.59322033898305</v>
+        <v>52</v>
       </c>
       <c r="L756" t="n">
         <v>275100</v>
@@ -38835,7 +38851,7 @@
         <v>189800</v>
       </c>
       <c r="K757" t="n">
-        <v>33.33333333333333</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L757" t="n">
         <v>275230</v>
@@ -38886,7 +38902,7 @@
         <v>190000</v>
       </c>
       <c r="K758" t="n">
-        <v>35.71428571428572</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L758" t="n">
         <v>275370</v>
@@ -38937,7 +38953,7 @@
         <v>190100</v>
       </c>
       <c r="K759" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L759" t="n">
         <v>275430</v>
@@ -38988,7 +39004,7 @@
         <v>190100</v>
       </c>
       <c r="K760" t="n">
-        <v>30.90909090909091</v>
+        <v>60</v>
       </c>
       <c r="L760" t="n">
         <v>275520</v>
@@ -39039,7 +39055,7 @@
         <v>190300</v>
       </c>
       <c r="K761" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L761" t="n">
         <v>275630</v>
@@ -39090,7 +39106,7 @@
         <v>190900</v>
       </c>
       <c r="K762" t="n">
-        <v>12.28070175438596</v>
+        <v>0</v>
       </c>
       <c r="L762" t="n">
         <v>275660</v>
@@ -39141,7 +39157,7 @@
         <v>191000</v>
       </c>
       <c r="K763" t="n">
-        <v>3.703703703703703</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L763" t="n">
         <v>275650</v>
@@ -39192,7 +39208,7 @@
         <v>191300</v>
       </c>
       <c r="K764" t="n">
-        <v>-1.96078431372549</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L764" t="n">
         <v>275670</v>
@@ -39243,7 +39259,7 @@
         <v>191500</v>
       </c>
       <c r="K765" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L765" t="n">
         <v>275680</v>
@@ -39294,7 +39310,7 @@
         <v>191700</v>
       </c>
       <c r="K766" t="n">
-        <v>13.04347826086956</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L766" t="n">
         <v>275630</v>
@@ -39345,7 +39361,7 @@
         <v>192500</v>
       </c>
       <c r="K767" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="L767" t="n">
         <v>275500</v>
@@ -39396,7 +39412,7 @@
         <v>192800</v>
       </c>
       <c r="K768" t="n">
-        <v>0</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L768" t="n">
         <v>275360</v>
@@ -39447,7 +39463,7 @@
         <v>192900</v>
       </c>
       <c r="K769" t="n">
-        <v>-17.39130434782609</v>
+        <v>-50</v>
       </c>
       <c r="L769" t="n">
         <v>275220</v>
@@ -39498,7 +39514,7 @@
         <v>192900</v>
       </c>
       <c r="K770" t="n">
-        <v>-11.62790697674419</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L770" t="n">
         <v>275080</v>
@@ -39549,7 +39565,7 @@
         <v>192900</v>
       </c>
       <c r="K771" t="n">
-        <v>-11.62790697674419</v>
+        <v>-50</v>
       </c>
       <c r="L771" t="n">
         <v>274920</v>
@@ -39600,7 +39616,7 @@
         <v>192900</v>
       </c>
       <c r="K772" t="n">
-        <v>-17.07317073170732</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L772" t="n">
         <v>274820</v>
@@ -39651,7 +39667,7 @@
         <v>193000</v>
       </c>
       <c r="K773" t="n">
-        <v>-23.07692307692308</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L773" t="n">
         <v>274740</v>
@@ -39702,7 +39718,7 @@
         <v>193600</v>
       </c>
       <c r="K774" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L774" t="n">
         <v>274690</v>
@@ -39753,7 +39769,7 @@
         <v>194200</v>
       </c>
       <c r="K775" t="n">
-        <v>-25</v>
+        <v>-44</v>
       </c>
       <c r="L775" t="n">
         <v>274560</v>
@@ -39804,7 +39820,7 @@
         <v>194200</v>
       </c>
       <c r="K776" t="n">
-        <v>-36.36363636363637</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L776" t="n">
         <v>274450</v>
@@ -39855,7 +39871,7 @@
         <v>194300</v>
       </c>
       <c r="K777" t="n">
-        <v>-33.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L777" t="n">
         <v>274430</v>
@@ -39906,7 +39922,7 @@
         <v>194800</v>
       </c>
       <c r="K778" t="n">
-        <v>-37.5</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L778" t="n">
         <v>274390</v>
@@ -39957,7 +39973,7 @@
         <v>195100</v>
       </c>
       <c r="K779" t="n">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="L779" t="n">
         <v>274390</v>
@@ -40008,7 +40024,7 @@
         <v>195700</v>
       </c>
       <c r="K780" t="n">
-        <v>-14.28571428571428</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L780" t="n">
         <v>274450</v>
@@ -40059,7 +40075,7 @@
         <v>195800</v>
       </c>
       <c r="K781" t="n">
-        <v>-16.36363636363636</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L781" t="n">
         <v>274520</v>
@@ -40110,7 +40126,7 @@
         <v>196300</v>
       </c>
       <c r="K782" t="n">
-        <v>-14.81481481481481</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L782" t="n">
         <v>274540</v>
@@ -40161,7 +40177,7 @@
         <v>196800</v>
       </c>
       <c r="K783" t="n">
-        <v>-20.68965517241379</v>
+        <v>-31.25</v>
       </c>
       <c r="L783" t="n">
         <v>274500</v>
@@ -40212,7 +40228,7 @@
         <v>196800</v>
       </c>
       <c r="K784" t="n">
-        <v>-27.27272727272727</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L784" t="n">
         <v>274400</v>
@@ -40263,7 +40279,7 @@
         <v>196800</v>
       </c>
       <c r="K785" t="n">
-        <v>-32.0754716981132</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L785" t="n">
         <v>274360</v>
@@ -40314,7 +40330,7 @@
         <v>196800</v>
       </c>
       <c r="K786" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L786" t="n">
         <v>274320</v>
@@ -40365,7 +40381,7 @@
         <v>196900</v>
       </c>
       <c r="K787" t="n">
-        <v>-18.18181818181818</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L787" t="n">
         <v>274260</v>
@@ -40416,7 +40432,7 @@
         <v>197000</v>
       </c>
       <c r="K788" t="n">
-        <v>-9.523809523809524</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L788" t="n">
         <v>274260</v>
@@ -40467,7 +40483,7 @@
         <v>197200</v>
       </c>
       <c r="K789" t="n">
-        <v>-11.62790697674419</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L789" t="n">
         <v>274210</v>
@@ -40518,7 +40534,7 @@
         <v>197400</v>
       </c>
       <c r="K790" t="n">
-        <v>-6.666666666666667</v>
+        <v>-62.5</v>
       </c>
       <c r="L790" t="n">
         <v>274120</v>
@@ -40569,7 +40585,7 @@
         <v>197500</v>
       </c>
       <c r="K791" t="n">
-        <v>-8.695652173913043</v>
+        <v>-50</v>
       </c>
       <c r="L791" t="n">
         <v>274010</v>
@@ -40620,7 +40636,7 @@
         <v>197500</v>
       </c>
       <c r="K792" t="n">
-        <v>-8.695652173913043</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L792" t="n">
         <v>273950</v>
@@ -40671,7 +40687,7 @@
         <v>197500</v>
       </c>
       <c r="K793" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L793" t="n">
         <v>273940</v>
@@ -40722,7 +40738,7 @@
         <v>197700</v>
       </c>
       <c r="K794" t="n">
-        <v>-21.95121951219512</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L794" t="n">
         <v>273950</v>
@@ -40773,7 +40789,7 @@
         <v>197700</v>
       </c>
       <c r="K795" t="n">
-        <v>-8.571428571428571</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L795" t="n">
         <v>273960</v>
@@ -40824,7 +40840,7 @@
         <v>197900</v>
       </c>
       <c r="K796" t="n">
-        <v>-2.702702702702703</v>
+        <v>40</v>
       </c>
       <c r="L796" t="n">
         <v>273990</v>
@@ -40875,7 +40891,7 @@
         <v>198200</v>
       </c>
       <c r="K797" t="n">
-        <v>-12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L797" t="n">
         <v>274000</v>
@@ -40926,7 +40942,7 @@
         <v>198200</v>
       </c>
       <c r="K798" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L798" t="n">
         <v>274000</v>
@@ -40977,7 +40993,7 @@
         <v>198500</v>
       </c>
       <c r="K799" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L799" t="n">
         <v>274050</v>
@@ -41028,7 +41044,7 @@
         <v>198800</v>
       </c>
       <c r="K800" t="n">
-        <v>-29.03225806451613</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L800" t="n">
         <v>274050</v>
@@ -41079,7 +41095,7 @@
         <v>199100</v>
       </c>
       <c r="K801" t="n">
-        <v>-21.21212121212121</v>
+        <v>25</v>
       </c>
       <c r="L801" t="n">
         <v>274090</v>
@@ -41130,7 +41146,7 @@
         <v>199700</v>
       </c>
       <c r="K802" t="n">
-        <v>-23.52941176470588</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L802" t="n">
         <v>274070</v>
@@ -41181,7 +41197,7 @@
         <v>199700</v>
       </c>
       <c r="K803" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L803" t="n">
         <v>274050</v>
@@ -41232,7 +41248,7 @@
         <v>199800</v>
       </c>
       <c r="K804" t="n">
-        <v>-13.33333333333333</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L804" t="n">
         <v>274000</v>
@@ -41283,7 +41299,7 @@
         <v>200100</v>
       </c>
       <c r="K805" t="n">
-        <v>-21.21212121212121</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L805" t="n">
         <v>273920</v>
@@ -41334,7 +41350,7 @@
         <v>200200</v>
       </c>
       <c r="K806" t="n">
-        <v>-23.52941176470588</v>
+        <v>-40</v>
       </c>
       <c r="L806" t="n">
         <v>273810</v>
@@ -41385,7 +41401,7 @@
         <v>200900</v>
       </c>
       <c r="K807" t="n">
-        <v>-35</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L807" t="n">
         <v>273660</v>
@@ -41436,7 +41452,7 @@
         <v>201100</v>
       </c>
       <c r="K808" t="n">
-        <v>-41.46341463414634</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L808" t="n">
         <v>273490</v>
@@ -41487,7 +41503,7 @@
         <v>201400</v>
       </c>
       <c r="K809" t="n">
-        <v>-42.85714285714285</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L809" t="n">
         <v>273260</v>
@@ -41538,7 +41554,7 @@
         <v>201800</v>
       </c>
       <c r="K810" t="n">
-        <v>-54.54545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L810" t="n">
         <v>273020</v>
@@ -41589,7 +41605,7 @@
         <v>202200</v>
       </c>
       <c r="K811" t="n">
-        <v>-40.42553191489361</v>
+        <v>-68</v>
       </c>
       <c r="L811" t="n">
         <v>272790</v>
@@ -41640,7 +41656,7 @@
         <v>202900</v>
       </c>
       <c r="K812" t="n">
-        <v>-22.22222222222222</v>
+        <v>-31.25</v>
       </c>
       <c r="L812" t="n">
         <v>272690</v>
@@ -41691,7 +41707,7 @@
         <v>203000</v>
       </c>
       <c r="K813" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L813" t="n">
         <v>272600</v>
@@ -41742,7 +41758,7 @@
         <v>203500</v>
       </c>
       <c r="K814" t="n">
-        <v>-31.03448275862069</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L814" t="n">
         <v>272470</v>
@@ -41793,7 +41809,7 @@
         <v>203800</v>
       </c>
       <c r="K815" t="n">
-        <v>-24.59016393442623</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L815" t="n">
         <v>272400</v>
@@ -41844,7 +41860,7 @@
         <v>203900</v>
       </c>
       <c r="K816" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L816" t="n">
         <v>272330</v>
@@ -41895,7 +41911,7 @@
         <v>204000</v>
       </c>
       <c r="K817" t="n">
-        <v>-27.58620689655172</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L817" t="n">
         <v>272320</v>
@@ -41946,7 +41962,7 @@
         <v>204000</v>
       </c>
       <c r="K818" t="n">
-        <v>-27.58620689655172</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L818" t="n">
         <v>272330</v>
@@ -41997,7 +42013,7 @@
         <v>204200</v>
       </c>
       <c r="K819" t="n">
-        <v>-29.82456140350877</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L819" t="n">
         <v>272390</v>
@@ -42048,7 +42064,7 @@
         <v>204200</v>
       </c>
       <c r="K820" t="n">
-        <v>-25.92592592592592</v>
+        <v>30</v>
       </c>
       <c r="L820" t="n">
         <v>272490</v>
@@ -42099,7 +42115,7 @@
         <v>204600</v>
       </c>
       <c r="K821" t="n">
-        <v>-38.18181818181819</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L821" t="n">
         <v>272510</v>
@@ -42150,7 +42166,7 @@
         <v>205000</v>
       </c>
       <c r="K822" t="n">
-        <v>-35.84905660377358</v>
+        <v>-50</v>
       </c>
       <c r="L822" t="n">
         <v>272420</v>
@@ -42201,7 +42217,7 @@
         <v>205400</v>
       </c>
       <c r="K823" t="n">
-        <v>-26.31578947368421</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L823" t="n">
         <v>272360</v>
@@ -42303,7 +42319,7 @@
         <v>205500</v>
       </c>
       <c r="K825" t="n">
-        <v>-18.51851851851852</v>
+        <v>-12.5</v>
       </c>
       <c r="L825" t="n">
         <v>272320</v>
@@ -42354,7 +42370,7 @@
         <v>205900</v>
       </c>
       <c r="K826" t="n">
-        <v>-22.80701754385965</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L826" t="n">
         <v>272260</v>
@@ -42405,7 +42421,7 @@
         <v>206100</v>
       </c>
       <c r="K827" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L827" t="n">
         <v>272230</v>
@@ -42456,7 +42472,7 @@
         <v>206200</v>
       </c>
       <c r="K828" t="n">
-        <v>-5.88235294117647</v>
+        <v>-30</v>
       </c>
       <c r="L828" t="n">
         <v>272190</v>
@@ -42507,7 +42523,7 @@
         <v>206600</v>
       </c>
       <c r="K829" t="n">
-        <v>7.692307692307693</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L829" t="n">
         <v>272170</v>
@@ -42558,7 +42574,7 @@
         <v>206700</v>
       </c>
       <c r="K830" t="n">
-        <v>14.28571428571428</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L830" t="n">
         <v>272140</v>
@@ -42609,7 +42625,7 @@
         <v>206800</v>
       </c>
       <c r="K831" t="n">
-        <v>8.695652173913043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L831" t="n">
         <v>272160</v>
@@ -42660,7 +42676,7 @@
         <v>207100</v>
       </c>
       <c r="K832" t="n">
-        <v>-14.28571428571428</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L832" t="n">
         <v>272190</v>
@@ -42711,7 +42727,7 @@
         <v>207800</v>
       </c>
       <c r="K833" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L833" t="n">
         <v>272250</v>
@@ -42762,7 +42778,7 @@
         <v>207900</v>
       </c>
       <c r="K834" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L834" t="n">
         <v>272300</v>
@@ -42813,7 +42829,7 @@
         <v>207900</v>
       </c>
       <c r="K835" t="n">
-        <v>2.439024390243902</v>
+        <v>40</v>
       </c>
       <c r="L835" t="n">
         <v>272340</v>
@@ -42864,7 +42880,7 @@
         <v>208100</v>
       </c>
       <c r="K836" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L836" t="n">
         <v>272400</v>
@@ -42915,7 +42931,7 @@
         <v>208200</v>
       </c>
       <c r="K837" t="n">
-        <v>4.761904761904762</v>
+        <v>30</v>
       </c>
       <c r="L837" t="n">
         <v>272450</v>
@@ -42966,7 +42982,7 @@
         <v>209200</v>
       </c>
       <c r="K838" t="n">
-        <v>23.07692307692308</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L838" t="n">
         <v>272610</v>
@@ -43017,7 +43033,7 @@
         <v>209300</v>
       </c>
       <c r="K839" t="n">
-        <v>21.56862745098039</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L839" t="n">
         <v>272740</v>
@@ -43068,7 +43084,7 @@
         <v>209400</v>
       </c>
       <c r="K840" t="n">
-        <v>19.23076923076923</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L840" t="n">
         <v>272870</v>
@@ -43119,7 +43135,7 @@
         <v>209500</v>
       </c>
       <c r="K841" t="n">
-        <v>30.61224489795918</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L841" t="n">
         <v>273000</v>
@@ -43170,7 +43186,7 @@
         <v>209600</v>
       </c>
       <c r="K842" t="n">
-        <v>39.1304347826087</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L842" t="n">
         <v>273150</v>
@@ -43221,7 +43237,7 @@
         <v>209700</v>
       </c>
       <c r="K843" t="n">
-        <v>34.88372093023256</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L843" t="n">
         <v>273240</v>
@@ -43272,7 +43288,7 @@
         <v>209900</v>
       </c>
       <c r="K844" t="n">
-        <v>37.77777777777778</v>
+        <v>60</v>
       </c>
       <c r="L844" t="n">
         <v>273360</v>
@@ -43323,7 +43339,7 @@
         <v>210000</v>
       </c>
       <c r="K845" t="n">
-        <v>33.33333333333333</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L845" t="n">
         <v>273470</v>
@@ -43374,7 +43390,7 @@
         <v>210300</v>
       </c>
       <c r="K846" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L846" t="n">
         <v>273630</v>
@@ -43425,7 +43441,7 @@
         <v>210400</v>
       </c>
       <c r="K847" t="n">
-        <v>48.83720930232558</v>
+        <v>50</v>
       </c>
       <c r="L847" t="n">
         <v>273790</v>
@@ -43476,7 +43492,7 @@
         <v>210800</v>
       </c>
       <c r="K848" t="n">
-        <v>39.1304347826087</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L848" t="n">
         <v>273810</v>
@@ -43527,7 +43543,7 @@
         <v>211400</v>
       </c>
       <c r="K849" t="n">
-        <v>41.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="L849" t="n">
         <v>273880</v>
@@ -43578,7 +43594,7 @@
         <v>211700</v>
       </c>
       <c r="K850" t="n">
-        <v>36</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L850" t="n">
         <v>273930</v>
@@ -43629,7 +43645,7 @@
         <v>212000</v>
       </c>
       <c r="K851" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L851" t="n">
         <v>274000</v>
@@ -43680,7 +43696,7 @@
         <v>212100</v>
       </c>
       <c r="K852" t="n">
-        <v>48</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L852" t="n">
         <v>274090</v>
@@ -43731,7 +43747,7 @@
         <v>212400</v>
       </c>
       <c r="K853" t="n">
-        <v>43.47826086956522</v>
+        <v>36</v>
       </c>
       <c r="L853" t="n">
         <v>274200</v>
@@ -43782,7 +43798,7 @@
         <v>212500</v>
       </c>
       <c r="K854" t="n">
-        <v>43.47826086956522</v>
+        <v>36</v>
       </c>
       <c r="L854" t="n">
         <v>274280</v>
@@ -43833,7 +43849,7 @@
         <v>213000</v>
       </c>
       <c r="K855" t="n">
-        <v>29.41176470588236</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L855" t="n">
         <v>274320</v>
@@ -43884,7 +43900,7 @@
         <v>213200</v>
       </c>
       <c r="K856" t="n">
-        <v>37.25490196078432</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L856" t="n">
         <v>274350</v>
@@ -43935,7 +43951,7 @@
         <v>213800</v>
       </c>
       <c r="K857" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L857" t="n">
         <v>274310</v>
@@ -43986,7 +44002,7 @@
         <v>214000</v>
       </c>
       <c r="K858" t="n">
-        <v>8.333333333333332</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L858" t="n">
         <v>274330</v>
@@ -44037,7 +44053,7 @@
         <v>214300</v>
       </c>
       <c r="K859" t="n">
-        <v>0</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L859" t="n">
         <v>274260</v>
@@ -44088,7 +44104,7 @@
         <v>214400</v>
       </c>
       <c r="K860" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L860" t="n">
         <v>274210</v>
@@ -44139,7 +44155,7 @@
         <v>214500</v>
       </c>
       <c r="K861" t="n">
-        <v>-4</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L861" t="n">
         <v>274120</v>
@@ -44190,7 +44206,7 @@
         <v>214500</v>
       </c>
       <c r="K862" t="n">
-        <v>-2.040816326530612</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L862" t="n">
         <v>274020</v>
@@ -44241,7 +44257,7 @@
         <v>214500</v>
       </c>
       <c r="K863" t="n">
-        <v>-4.166666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L863" t="n">
         <v>273890</v>
@@ -44292,7 +44308,7 @@
         <v>214500</v>
       </c>
       <c r="K864" t="n">
-        <v>-8.695652173913043</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L864" t="n">
         <v>273770</v>
@@ -44343,7 +44359,7 @@
         <v>214700</v>
       </c>
       <c r="K865" t="n">
-        <v>-10.63829787234043</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L865" t="n">
         <v>273680</v>
@@ -44394,7 +44410,7 @@
         <v>215000</v>
       </c>
       <c r="K866" t="n">
-        <v>-10.63829787234043</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L866" t="n">
         <v>273600</v>
@@ -44445,7 +44461,7 @@
         <v>215000</v>
       </c>
       <c r="K867" t="n">
-        <v>-13.04347826086956</v>
+        <v>-40</v>
       </c>
       <c r="L867" t="n">
         <v>273580</v>
@@ -44496,7 +44512,7 @@
         <v>216100</v>
       </c>
       <c r="K868" t="n">
-        <v>16.9811320754717</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L868" t="n">
         <v>273650</v>
@@ -44547,7 +44563,7 @@
         <v>216200</v>
       </c>
       <c r="K869" t="n">
-        <v>4.166666666666666</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L869" t="n">
         <v>273740</v>
@@ -44598,7 +44614,7 @@
         <v>216700</v>
       </c>
       <c r="K870" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L870" t="n">
         <v>273790</v>
@@ -44649,7 +44665,7 @@
         <v>216800</v>
       </c>
       <c r="K871" t="n">
-        <v>-8.333333333333332</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L871" t="n">
         <v>273840</v>
@@ -44700,7 +44716,7 @@
         <v>216900</v>
       </c>
       <c r="K872" t="n">
-        <v>-8.333333333333332</v>
+        <v>25</v>
       </c>
       <c r="L872" t="n">
         <v>273900</v>
@@ -44751,7 +44767,7 @@
         <v>217200</v>
       </c>
       <c r="K873" t="n">
-        <v>-20.83333333333334</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L873" t="n">
         <v>273930</v>
@@ -44802,7 +44818,7 @@
         <v>218100</v>
       </c>
       <c r="K874" t="n">
-        <v>-32.14285714285715</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L874" t="n">
         <v>273870</v>
@@ -44853,7 +44869,7 @@
         <v>218600</v>
       </c>
       <c r="K875" t="n">
-        <v>-32.14285714285715</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L875" t="n">
         <v>273780</v>
@@ -44904,7 +44920,7 @@
         <v>219800</v>
       </c>
       <c r="K876" t="n">
-        <v>-12.12121212121212</v>
+        <v>0</v>
       </c>
       <c r="L876" t="n">
         <v>273780</v>
@@ -44955,7 +44971,7 @@
         <v>219900</v>
       </c>
       <c r="K877" t="n">
-        <v>-4.918032786885246</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L877" t="n">
         <v>273770</v>
@@ -45006,7 +45022,7 @@
         <v>220200</v>
       </c>
       <c r="K878" t="n">
-        <v>-12.90322580645161</v>
+        <v>-35</v>
       </c>
       <c r="L878" t="n">
         <v>273620</v>
@@ -45057,7 +45073,7 @@
         <v>220400</v>
       </c>
       <c r="K879" t="n">
-        <v>-11.47540983606557</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L879" t="n">
         <v>273460</v>
@@ -45108,7 +45124,7 @@
         <v>220400</v>
       </c>
       <c r="K880" t="n">
-        <v>-10</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L880" t="n">
         <v>273350</v>
@@ -45159,7 +45175,7 @@
         <v>221100</v>
       </c>
       <c r="K881" t="n">
-        <v>-18.18181818181818</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L881" t="n">
         <v>273180</v>
@@ -45210,7 +45226,7 @@
         <v>221200</v>
       </c>
       <c r="K882" t="n">
-        <v>-16.41791044776119</v>
+        <v>-35</v>
       </c>
       <c r="L882" t="n">
         <v>273010</v>
@@ -45261,7 +45277,7 @@
         <v>221800</v>
       </c>
       <c r="K883" t="n">
-        <v>-6.849315068493151</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L883" t="n">
         <v>272930</v>
@@ -45312,7 +45328,7 @@
         <v>221900</v>
       </c>
       <c r="K884" t="n">
-        <v>-5.405405405405405</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L884" t="n">
         <v>272950</v>
@@ -45363,7 +45379,7 @@
         <v>222400</v>
       </c>
       <c r="K885" t="n">
-        <v>3.896103896103896</v>
+        <v>0</v>
       </c>
       <c r="L885" t="n">
         <v>273070</v>
@@ -45414,7 +45430,7 @@
         <v>222800</v>
       </c>
       <c r="K886" t="n">
-        <v>-5.128205128205128</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L886" t="n">
         <v>273030</v>
@@ -45465,7 +45481,7 @@
         <v>223100</v>
       </c>
       <c r="K887" t="n">
-        <v>-8.641975308641975</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L887" t="n">
         <v>272970</v>
@@ -45516,7 +45532,7 @@
         <v>223200</v>
       </c>
       <c r="K888" t="n">
-        <v>-23.94366197183098</v>
+        <v>0</v>
       </c>
       <c r="L888" t="n">
         <v>272950</v>

--- a/BackTest/2019-10-22 BackTest BCH.xlsx
+++ b/BackTest/2019-10-22 BackTest BCH.xlsx
@@ -3881,14 +3881,20 @@
         <v>266075</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>264600</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,14 +3922,20 @@
         <v>266055</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>264700</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3963,20 @@
         <v>266028.3333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>264800</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +4004,20 @@
         <v>266005</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>264600</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4032,7 +4056,7 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -4068,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>264800</v>
+        <v>264600</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
@@ -4109,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>264700</v>
+        <v>264800</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
@@ -4150,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>264700</v>
+        <v>264400</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
@@ -4226,14 +4250,12 @@
         <v>265895</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>264900</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4267,14 +4289,12 @@
         <v>265878.3333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>265300</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4308,14 +4328,12 @@
         <v>265848.3333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>264700</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4349,14 +4367,12 @@
         <v>265805</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4390,14 +4406,12 @@
         <v>265765</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4431,14 +4445,12 @@
         <v>265725</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>264700</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4472,14 +4484,12 @@
         <v>265680</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4513,14 +4523,12 @@
         <v>265633.3333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4554,14 +4562,12 @@
         <v>265586.6666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>264100</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4595,14 +4601,12 @@
         <v>265541.6666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4636,14 +4640,12 @@
         <v>265500</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4677,14 +4679,12 @@
         <v>265458.3333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4718,14 +4718,12 @@
         <v>265413.3333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4759,14 +4757,12 @@
         <v>265366.6666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>264000</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4800,14 +4796,12 @@
         <v>265320</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>264000</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4841,14 +4835,12 @@
         <v>265283.3333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -4882,14 +4874,12 @@
         <v>265240</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>264000</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -4923,14 +4913,12 @@
         <v>265195</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>263900</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -4964,14 +4952,12 @@
         <v>265148.3333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>263800</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5005,14 +4991,12 @@
         <v>265103.3333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>263700</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5046,14 +5030,12 @@
         <v>265056.6666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>263500</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5087,14 +5069,12 @@
         <v>265011.6666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>263600</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5128,14 +5108,12 @@
         <v>264975</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>263900</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5169,14 +5147,12 @@
         <v>264921.6666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>263900</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5210,14 +5186,12 @@
         <v>264891.6666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5251,14 +5225,12 @@
         <v>264856.6666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5292,14 +5264,12 @@
         <v>264826.6666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5333,14 +5303,12 @@
         <v>264798.3333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5374,14 +5342,12 @@
         <v>264761.6666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5415,14 +5381,12 @@
         <v>264725</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5456,14 +5420,12 @@
         <v>264686.6666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5497,14 +5459,12 @@
         <v>264648.3333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5538,14 +5498,12 @@
         <v>264615</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5579,14 +5537,12 @@
         <v>264580</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>264300</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5620,14 +5576,12 @@
         <v>264556.6666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>264100</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5661,14 +5615,12 @@
         <v>264526.6666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>264100</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5702,14 +5654,12 @@
         <v>264501.6666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5743,14 +5693,12 @@
         <v>264473.3333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5784,14 +5732,12 @@
         <v>264458.3333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5825,14 +5771,12 @@
         <v>264445</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5866,14 +5810,12 @@
         <v>264428.3333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5907,14 +5849,12 @@
         <v>264411.6666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5948,14 +5888,12 @@
         <v>264391.6666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5989,14 +5927,12 @@
         <v>264378.3333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>264500</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6030,14 +5966,12 @@
         <v>264375</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6071,14 +6005,12 @@
         <v>264370</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>264200</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6112,14 +6044,12 @@
         <v>264368.3333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6153,14 +6083,12 @@
         <v>264371.6666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>264800</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6194,14 +6122,12 @@
         <v>264378.3333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>264800</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6235,14 +6161,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>264700</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6276,14 +6200,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6317,14 +6239,12 @@
         <v>264381.6666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6358,14 +6278,12 @@
         <v>264378.3333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6399,14 +6317,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>264900</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6440,14 +6356,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>264700</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6481,14 +6395,12 @@
         <v>264386.6666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>264800</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6522,14 +6434,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>264800</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6563,14 +6473,12 @@
         <v>264386.6666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6604,14 +6512,12 @@
         <v>264383.3333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6645,14 +6551,12 @@
         <v>264373.3333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6686,14 +6590,12 @@
         <v>264370</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>264600</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6727,14 +6629,12 @@
         <v>264358.3333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6768,14 +6668,12 @@
         <v>264353.3333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6809,14 +6707,12 @@
         <v>264345</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6850,14 +6746,12 @@
         <v>264331.6666666667</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>264000</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6891,14 +6785,12 @@
         <v>264341.6666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6932,14 +6824,12 @@
         <v>264353.3333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>264900</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6973,14 +6863,12 @@
         <v>264370</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>265200</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7014,14 +6902,12 @@
         <v>264381.6666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>265000</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7055,14 +6941,12 @@
         <v>264398.3333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>265300</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7096,14 +6980,12 @@
         <v>264413.3333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>265700</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7137,14 +7019,12 @@
         <v>264435</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>265800</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -7178,14 +7058,12 @@
         <v>264455</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>265500</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7219,14 +7097,12 @@
         <v>264483.3333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>265700</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -7260,14 +7136,12 @@
         <v>264520</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>265900</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7301,14 +7175,12 @@
         <v>264551.6666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>266000</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -8671,18 +8543,16 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8714,11 +8584,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8619,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +8654,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +8689,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +8724,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +8759,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8794,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8987,11 +8829,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9026,11 +8864,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +8899,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +8934,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9143,12 +8969,10 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9211,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
@@ -9246,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest BCH.xlsx
+++ b/BackTest/2019-10-22 BackTest BCH.xlsx
@@ -6193,11 +6193,17 @@
         <v>-435.1421689499998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>264200</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6232,17 @@
         <v>-434.4321689499998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>264200</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6264,10 +6276,12 @@
       <c r="I178" t="n">
         <v>264400</v>
       </c>
-      <c r="J178" t="n">
-        <v>264400</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6301,12 +6315,10 @@
       <c r="I179" t="n">
         <v>264400</v>
       </c>
-      <c r="J179" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6337,12 +6349,12 @@
         <v>-394.1724689499998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>264400</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>264700</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,9 +6393,7 @@
       <c r="I181" t="n">
         <v>264100</v>
       </c>
-      <c r="J181" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,9 +6432,7 @@
       <c r="I182" t="n">
         <v>264000</v>
       </c>
-      <c r="J182" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,9 +6471,7 @@
       <c r="I183" t="n">
         <v>263700</v>
       </c>
-      <c r="J183" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,9 +6510,7 @@
       <c r="I184" t="n">
         <v>264100</v>
       </c>
-      <c r="J184" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,9 +6549,7 @@
       <c r="I185" t="n">
         <v>264000</v>
       </c>
-      <c r="J185" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6586,9 +6588,7 @@
       <c r="I186" t="n">
         <v>263900</v>
       </c>
-      <c r="J186" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,9 +6627,7 @@
       <c r="I187" t="n">
         <v>263800</v>
       </c>
-      <c r="J187" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6668,9 +6666,7 @@
       <c r="I188" t="n">
         <v>263800</v>
       </c>
-      <c r="J188" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,9 +6705,7 @@
       <c r="I189" t="n">
         <v>263600</v>
       </c>
-      <c r="J189" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,9 +6744,7 @@
       <c r="I190" t="n">
         <v>263600</v>
       </c>
-      <c r="J190" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,9 +6783,7 @@
       <c r="I191" t="n">
         <v>264100</v>
       </c>
-      <c r="J191" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6832,9 +6822,7 @@
       <c r="I192" t="n">
         <v>263700</v>
       </c>
-      <c r="J192" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,9 +6861,7 @@
       <c r="I193" t="n">
         <v>264200</v>
       </c>
-      <c r="J193" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6914,9 +6900,7 @@
       <c r="I194" t="n">
         <v>264200</v>
       </c>
-      <c r="J194" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,9 +6939,7 @@
       <c r="I195" t="n">
         <v>264400</v>
       </c>
-      <c r="J195" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6996,9 +6978,7 @@
       <c r="I196" t="n">
         <v>264300</v>
       </c>
-      <c r="J196" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7037,9 +7017,7 @@
       <c r="I197" t="n">
         <v>264300</v>
       </c>
-      <c r="J197" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,9 +7056,7 @@
       <c r="I198" t="n">
         <v>264200</v>
       </c>
-      <c r="J198" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +7095,7 @@
       <c r="I199" t="n">
         <v>264500</v>
       </c>
-      <c r="J199" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7160,9 +7134,7 @@
       <c r="I200" t="n">
         <v>264200</v>
       </c>
-      <c r="J200" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,9 +7173,7 @@
       <c r="I201" t="n">
         <v>264500</v>
       </c>
-      <c r="J201" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7242,9 +7212,7 @@
       <c r="I202" t="n">
         <v>264300</v>
       </c>
-      <c r="J202" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,9 +7251,7 @@
       <c r="I203" t="n">
         <v>264100</v>
       </c>
-      <c r="J203" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,9 +7290,7 @@
       <c r="I204" t="n">
         <v>264100</v>
       </c>
-      <c r="J204" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,9 +7329,7 @@
       <c r="I205" t="n">
         <v>264400</v>
       </c>
-      <c r="J205" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,9 +7368,7 @@
       <c r="I206" t="n">
         <v>264200</v>
       </c>
-      <c r="J206" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7447,9 +7407,7 @@
       <c r="I207" t="n">
         <v>264400</v>
       </c>
-      <c r="J207" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7488,9 +7446,7 @@
       <c r="I208" t="n">
         <v>264400</v>
       </c>
-      <c r="J208" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,9 +7485,7 @@
       <c r="I209" t="n">
         <v>264400</v>
       </c>
-      <c r="J209" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7570,9 +7524,7 @@
       <c r="I210" t="n">
         <v>264500</v>
       </c>
-      <c r="J210" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,9 +7563,7 @@
       <c r="I211" t="n">
         <v>264200</v>
       </c>
-      <c r="J211" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,9 +7602,7 @@
       <c r="I212" t="n">
         <v>264200</v>
       </c>
-      <c r="J212" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7693,9 +7641,7 @@
       <c r="I213" t="n">
         <v>264400</v>
       </c>
-      <c r="J213" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,9 +7680,7 @@
       <c r="I214" t="n">
         <v>264600</v>
       </c>
-      <c r="J214" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,9 +7719,7 @@
       <c r="I215" t="n">
         <v>264600</v>
       </c>
-      <c r="J215" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,9 +7758,7 @@
       <c r="I216" t="n">
         <v>264800</v>
       </c>
-      <c r="J216" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,9 +7797,7 @@
       <c r="I217" t="n">
         <v>264900</v>
       </c>
-      <c r="J217" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,9 +7836,7 @@
       <c r="I218" t="n">
         <v>264700</v>
       </c>
-      <c r="J218" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,9 +7875,7 @@
       <c r="I219" t="n">
         <v>264600</v>
       </c>
-      <c r="J219" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,9 +7914,7 @@
       <c r="I220" t="n">
         <v>264600</v>
       </c>
-      <c r="J220" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,9 +7953,7 @@
       <c r="I221" t="n">
         <v>264600</v>
       </c>
-      <c r="J221" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,14 +7987,10 @@
         <v>-322.5878098</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>264900</v>
-      </c>
-      <c r="J222" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,14 +8024,10 @@
         <v>-322.58327808</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>264700</v>
-      </c>
-      <c r="J223" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,9 +8066,7 @@
       <c r="I224" t="n">
         <v>264800</v>
       </c>
-      <c r="J224" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8185,9 +8105,7 @@
       <c r="I225" t="n">
         <v>264600</v>
       </c>
-      <c r="J225" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,9 +8144,7 @@
       <c r="I226" t="n">
         <v>264600</v>
       </c>
-      <c r="J226" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,9 +8183,7 @@
       <c r="I227" t="n">
         <v>264800</v>
       </c>
-      <c r="J227" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,9 +8222,7 @@
       <c r="I228" t="n">
         <v>264600</v>
       </c>
-      <c r="J228" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,9 +8261,7 @@
       <c r="I229" t="n">
         <v>264700</v>
       </c>
-      <c r="J229" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,9 +8300,7 @@
       <c r="I230" t="n">
         <v>264400</v>
       </c>
-      <c r="J230" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,9 +8339,7 @@
       <c r="I231" t="n">
         <v>264400</v>
       </c>
-      <c r="J231" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,9 +8378,7 @@
       <c r="I232" t="n">
         <v>264100</v>
       </c>
-      <c r="J232" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,9 +8417,7 @@
       <c r="I233" t="n">
         <v>264000</v>
       </c>
-      <c r="J233" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,14 +8451,10 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>265300</v>
-      </c>
-      <c r="J234" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,14 +8488,10 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>265200</v>
-      </c>
-      <c r="J235" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8631,14 +8525,10 @@
         <v>-173.8315427599999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>265200</v>
-      </c>
-      <c r="J236" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,14 +8562,10 @@
         <v>-158.2961427599999</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>264900</v>
-      </c>
-      <c r="J237" t="n">
-        <v>264400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,9 +8602,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,9 +8639,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,9 +8676,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,9 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,9 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,9 +8787,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,9 +8824,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,9 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,9 +8898,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,9 +8935,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,9 +8972,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,9 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,9 +9046,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,9 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,9 +9120,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,9 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,9 +9194,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9379,9 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,9 +9268,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,9 +9305,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,9 +9342,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,9 +9379,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,9 +9416,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,9 +9453,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9652,9 +9490,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9691,9 +9527,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,9 +9564,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,9 +9601,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,9 +9638,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,9 +9675,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,9 +9712,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,9 +9749,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,9 +9786,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,9 +9823,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>264400</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10039,284 +9857,312 @@
         <v>1366.37023138</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>270900</v>
+      </c>
+      <c r="C273" t="n">
+        <v>271300</v>
+      </c>
+      <c r="D273" t="n">
+        <v>271300</v>
+      </c>
+      <c r="E273" t="n">
+        <v>270900</v>
+      </c>
+      <c r="F273" t="n">
+        <v>159.1901</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1525.56033138</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>271300</v>
+      </c>
+      <c r="C274" t="n">
+        <v>273000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>273000</v>
+      </c>
+      <c r="E274" t="n">
+        <v>271200</v>
+      </c>
+      <c r="F274" t="n">
+        <v>340.4746</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1866.03493138</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>273000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>275500</v>
+      </c>
+      <c r="D275" t="n">
+        <v>276100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>273000</v>
+      </c>
+      <c r="F275" t="n">
+        <v>579.2738000000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2445.30873138</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>275300</v>
+      </c>
+      <c r="C276" t="n">
+        <v>275100</v>
+      </c>
+      <c r="D276" t="n">
+        <v>275700</v>
+      </c>
+      <c r="E276" t="n">
+        <v>273700</v>
+      </c>
+      <c r="F276" t="n">
+        <v>278.06542241</v>
+      </c>
+      <c r="G276" t="n">
+        <v>2167.24330897</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>275200</v>
+      </c>
+      <c r="C277" t="n">
+        <v>275000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>275900</v>
+      </c>
+      <c r="E277" t="n">
+        <v>275000</v>
+      </c>
+      <c r="F277" t="n">
+        <v>288.86661116</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1878.37669781</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>275000</v>
+      </c>
+      <c r="C278" t="n">
+        <v>275100</v>
+      </c>
+      <c r="D278" t="n">
+        <v>275300</v>
+      </c>
+      <c r="E278" t="n">
+        <v>274500</v>
+      </c>
+      <c r="F278" t="n">
+        <v>226.6571</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2105.03379781</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>274600</v>
+      </c>
+      <c r="C279" t="n">
+        <v>275500</v>
+      </c>
+      <c r="D279" t="n">
+        <v>275500</v>
+      </c>
+      <c r="E279" t="n">
+        <v>274500</v>
+      </c>
+      <c r="F279" t="n">
+        <v>172.2614</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2277.29519781</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>275000</v>
+      </c>
+      <c r="C280" t="n">
+        <v>275100</v>
+      </c>
+      <c r="D280" t="n">
+        <v>275100</v>
+      </c>
+      <c r="E280" t="n">
+        <v>274900</v>
+      </c>
+      <c r="F280" t="n">
+        <v>41.4212</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2235.87399781</v>
+      </c>
+      <c r="H280" t="n">
         <v>2</v>
       </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>264400</v>
-      </c>
-      <c r="K272" t="inlineStr">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1.019583963691377</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>270900</v>
-      </c>
-      <c r="C273" t="n">
-        <v>271300</v>
-      </c>
-      <c r="D273" t="n">
-        <v>271300</v>
-      </c>
-      <c r="E273" t="n">
-        <v>270900</v>
-      </c>
-      <c r="F273" t="n">
-        <v>159.1901</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1525.56033138</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>271300</v>
-      </c>
-      <c r="C274" t="n">
-        <v>273000</v>
-      </c>
-      <c r="D274" t="n">
-        <v>273000</v>
-      </c>
-      <c r="E274" t="n">
-        <v>271200</v>
-      </c>
-      <c r="F274" t="n">
-        <v>340.4746</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1866.03493138</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>273000</v>
-      </c>
-      <c r="C275" t="n">
-        <v>275500</v>
-      </c>
-      <c r="D275" t="n">
-        <v>276100</v>
-      </c>
-      <c r="E275" t="n">
-        <v>273000</v>
-      </c>
-      <c r="F275" t="n">
-        <v>579.2738000000001</v>
-      </c>
-      <c r="G275" t="n">
-        <v>2445.30873138</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>275300</v>
-      </c>
-      <c r="C276" t="n">
-        <v>275100</v>
-      </c>
-      <c r="D276" t="n">
-        <v>275700</v>
-      </c>
-      <c r="E276" t="n">
-        <v>273700</v>
-      </c>
-      <c r="F276" t="n">
-        <v>278.06542241</v>
-      </c>
-      <c r="G276" t="n">
-        <v>2167.24330897</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>275200</v>
-      </c>
-      <c r="C277" t="n">
-        <v>275000</v>
-      </c>
-      <c r="D277" t="n">
-        <v>275900</v>
-      </c>
-      <c r="E277" t="n">
-        <v>275000</v>
-      </c>
-      <c r="F277" t="n">
-        <v>288.86661116</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1878.37669781</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>275000</v>
-      </c>
-      <c r="C278" t="n">
-        <v>275100</v>
-      </c>
-      <c r="D278" t="n">
-        <v>275300</v>
-      </c>
-      <c r="E278" t="n">
-        <v>274500</v>
-      </c>
-      <c r="F278" t="n">
-        <v>226.6571</v>
-      </c>
-      <c r="G278" t="n">
-        <v>2105.03379781</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>274600</v>
-      </c>
-      <c r="C279" t="n">
-        <v>275500</v>
-      </c>
-      <c r="D279" t="n">
-        <v>275500</v>
-      </c>
-      <c r="E279" t="n">
-        <v>274500</v>
-      </c>
-      <c r="F279" t="n">
-        <v>172.2614</v>
-      </c>
-      <c r="G279" t="n">
-        <v>2277.29519781</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>275000</v>
-      </c>
-      <c r="C280" t="n">
-        <v>275100</v>
-      </c>
-      <c r="D280" t="n">
-        <v>275100</v>
-      </c>
-      <c r="E280" t="n">
-        <v>274900</v>
-      </c>
-      <c r="F280" t="n">
-        <v>41.4212</v>
-      </c>
-      <c r="G280" t="n">
-        <v>2235.87399781</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
@@ -10342,7 +10188,7 @@
         <v>2259.91489781</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10408,7 +10254,7 @@
         <v>2159.95540151</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10441,7 +10287,7 @@
         <v>2176.88980151</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10474,7 +10320,7 @@
         <v>2251.98280151</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10507,7 +10353,7 @@
         <v>2271.20560151</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10573,7 +10419,7 @@
         <v>2313.21270151</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10606,7 +10452,7 @@
         <v>2007.07720151</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10639,7 +10485,7 @@
         <v>1941.53090151</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10672,7 +10518,7 @@
         <v>1829.84560151</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11035,7 +10881,7 @@
         <v>1609.511027289999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11068,7 +10914,7 @@
         <v>1545.588827289999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11101,7 +10947,7 @@
         <v>1578.42742729</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11134,7 +10980,7 @@
         <v>1575.17612729</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11167,7 +11013,7 @@
         <v>1594.73802729</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11200,7 +11046,7 @@
         <v>1592.73802729</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11233,7 +11079,7 @@
         <v>1612.73802729</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11266,7 +11112,7 @@
         <v>1612.73802729</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11299,7 +11145,7 @@
         <v>1598.14482729</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11332,7 +11178,7 @@
         <v>1626.446527289999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -23113,7 +22959,7 @@
         <v>2144.49368576</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23146,7 +22992,7 @@
         <v>2028.86338555</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23179,7 +23025,7 @@
         <v>2045.00948534</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23245,7 +23091,7 @@
         <v>2041.25568534</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23278,7 +23124,7 @@
         <v>2049.33848534</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23311,7 +23157,7 @@
         <v>2047.58478534</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23344,7 +23190,7 @@
         <v>2053.14178534</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23377,7 +23223,7 @@
         <v>2052.55588534</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23410,7 +23256,7 @@
         <v>1965.44168534</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23443,7 +23289,7 @@
         <v>2008.58668534</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23575,7 +23421,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23608,7 +23454,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23641,7 +23487,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23674,7 +23520,7 @@
         <v>2113.63708534</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23707,7 +23553,7 @@
         <v>2093.70308534</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23740,7 +23586,7 @@
         <v>2079.42538534</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23773,7 +23619,7 @@
         <v>2083.01738534</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23806,7 +23652,7 @@
         <v>2107.25508534</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23839,7 +23685,7 @@
         <v>2122.25508534</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23872,7 +23718,7 @@
         <v>2134.75368534</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23905,7 +23751,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23938,7 +23784,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23971,7 +23817,7 @@
         <v>2142.38188534</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24004,7 +23850,7 @@
         <v>2114.34858534</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24037,7 +23883,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24070,7 +23916,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24103,7 +23949,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24136,7 +23982,7 @@
         <v>2114.66378534</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24169,7 +24015,7 @@
         <v>2075.26318534</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24202,7 +24048,7 @@
         <v>2098.11688534</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24235,7 +24081,7 @@
         <v>2039.07768534</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24268,7 +24114,7 @@
         <v>2031.962385340001</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24301,7 +24147,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24334,7 +24180,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24367,7 +24213,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24400,7 +24246,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24433,7 +24279,7 @@
         <v>2133.92558534</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24466,7 +24312,7 @@
         <v>2143.55818534</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24499,7 +24345,7 @@
         <v>2164.361785340001</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24532,7 +24378,7 @@
         <v>2167.361785340001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24565,7 +24411,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24598,7 +24444,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24631,7 +24477,7 @@
         <v>2166.86208534</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24664,7 +24510,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24697,7 +24543,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24730,7 +24576,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24763,7 +24609,7 @@
         <v>2181.44748534</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24796,7 +24642,7 @@
         <v>2181.43448534</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24829,7 +24675,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24862,7 +24708,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24895,7 +24741,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24928,7 +24774,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24961,7 +24807,7 @@
         <v>2170.934733000001</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24994,7 +24840,7 @@
         <v>2191.380733</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25027,7 +24873,7 @@
         <v>2191.247433</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25060,7 +24906,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25093,7 +24939,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25126,7 +24972,7 @@
         <v>2195.251433</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25159,7 +25005,7 @@
         <v>2206.431433</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25192,7 +25038,7 @@
         <v>2207.433033</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25225,7 +25071,7 @@
         <v>2203.487933</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25258,7 +25104,7 @@
         <v>2249.17834368</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25291,7 +25137,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25324,7 +25170,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25357,7 +25203,7 @@
         <v>2284.70954368</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25390,7 +25236,7 @@
         <v>2290.70954368</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25423,7 +25269,7 @@
         <v>2214.23194368</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25456,7 +25302,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25489,7 +25335,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25522,7 +25368,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25555,7 +25401,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25588,7 +25434,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25621,7 +25467,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25654,7 +25500,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25687,7 +25533,7 @@
         <v>2286.55014368</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25720,7 +25566,7 @@
         <v>2285.36624368</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25753,7 +25599,7 @@
         <v>2246.75214368</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25786,7 +25632,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25819,7 +25665,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25852,7 +25698,7 @@
         <v>2116.33474368</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25885,7 +25731,7 @@
         <v>2104.55834368</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25918,7 +25764,7 @@
         <v>2084.05634368</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25951,7 +25797,7 @@
         <v>2017.71014368</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26050,7 +25896,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26083,7 +25929,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26116,7 +25962,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26149,7 +25995,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26182,7 +26028,7 @@
         <v>2110.303543680001</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26215,7 +26061,7 @@
         <v>2111.139943680001</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26248,7 +26094,7 @@
         <v>2106.70234368</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26281,7 +26127,7 @@
         <v>2103.825843680001</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26413,7 +26259,7 @@
         <v>2104.47144368</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27964,7 +27810,7 @@
         <v>2328.958983120001</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27997,7 +27843,7 @@
         <v>2328.958983120001</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28030,7 +27876,7 @@
         <v>2326.00748312</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28063,7 +27909,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28096,7 +27942,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28129,7 +27975,7 @@
         <v>2395.21368312</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28162,7 +28008,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28195,7 +28041,7 @@
         <v>2378.564483120001</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28228,7 +28074,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28261,7 +28107,7 @@
         <v>2396.040883120001</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28294,7 +28140,7 @@
         <v>2393.920983120001</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28327,7 +28173,7 @@
         <v>2376.91098312</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28360,7 +28206,7 @@
         <v>2376.73498312</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28624,7 +28470,7 @@
         <v>2464.785983120001</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
